--- a/app/lib/appDriversAndFormulas_v.1.2.xlsx
+++ b/app/lib/appDriversAndFormulas_v.1.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equity Valuation" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="150000" iterate="1" iterateDelta="0.1" concurrentCalc="0"/>
   <extLst>
@@ -546,34 +545,34 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,0##&quot;/yr&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,###&quot;/mo&quot;"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,###&quot;/yr&quot;"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.0;[Red]\-&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,###\ &quot;/interval&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;units&quot;"/>
-    <numFmt numFmtId="188" formatCode="#,###&quot; units/yr&quot;"/>
-    <numFmt numFmtId="192" formatCode="#,##0\ &quot; hrs&quot;"/>
-    <numFmt numFmtId="206" formatCode="&quot;$&quot;#,##0.00_)&quot;/ hr&quot;;[Red]\(&quot;$&quot;#,##0.00\)\ &quot;/ hr&quot;"/>
-    <numFmt numFmtId="207" formatCode="#,##0_);[Red]\(#,##0\)\ &quot;hours&quot;"/>
-    <numFmt numFmtId="208" formatCode="#,##0\ &quot;hrs&quot;"/>
-    <numFmt numFmtId="209" formatCode="#,##0_);[Red]\(#,##0\)\ &quot;hrs&quot;"/>
-    <numFmt numFmtId="211" formatCode="#,##0_)\ &quot;hrs&quot;;[Red]\(#,##0\)\ &quot;hrs&quot;"/>
-    <numFmt numFmtId="215" formatCode="&quot;$&quot;#,##0.00_)&quot;/unit avg&quot;;[Red]\(&quot;$&quot;#,##0.00\)&quot;/unit avg&quot;"/>
-    <numFmt numFmtId="217" formatCode="&quot;$&quot;#,###&quot;   (FMV)&quot;"/>
-    <numFmt numFmtId="219" formatCode="#0\ &quot;hrs/wk&quot;"/>
-    <numFmt numFmtId="221" formatCode="#,##0\ &quot;hrs/year&quot;"/>
-    <numFmt numFmtId="224" formatCode="&quot;$&quot;#,##0.00\)&quot;/hr PTO&quot;;[Red]\(&quot;$&quot;#,##0.00\)&quot;/hr  PTO&quot;"/>
-    <numFmt numFmtId="225" formatCode="#0\ &quot;out of 52 wks worked/yr&quot;"/>
-    <numFmt numFmtId="230" formatCode="&quot;$&quot;#,##0_)&quot;salary fully annualized&quot;"/>
-    <numFmt numFmtId="231" formatCode="&quot;$&quot;##,##0&quot;/mo&quot;"/>
-    <numFmt numFmtId="233" formatCode="&quot;weighted avg:&quot;\ &quot;$&quot;#,##0.00&quot;/hr&quot;;[Red]&quot;weighted avg: &quot;\(&quot;$&quot;#,##0.00\)&quot;/hr&quot;"/>
-    <numFmt numFmtId="235" formatCode="#0\ &quot;wks/yr&quot;"/>
-    <numFmt numFmtId="236" formatCode="&quot;FMV: &quot;&quot;$&quot;#,##0&quot;/yr&quot;"/>
-    <numFmt numFmtId="237" formatCode="#,##0\ &quot;gross annual hrs&quot;"/>
-    <numFmt numFmtId="239" formatCode="#0.0\ &quot;hrs/wk&quot;"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0;[Red]\-&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="174" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,###\ &quot;/interval&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="178" formatCode="#,##0\ &quot;units&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,###&quot; units/yr&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0\ &quot; hrs&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0.00_)&quot;/ hr&quot;;[Red]\(&quot;$&quot;#,##0.00\)\ &quot;/ hr&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)\ &quot;hours&quot;"/>
+    <numFmt numFmtId="183" formatCode="#,##0\ &quot;hrs&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)\ &quot;hrs&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0_)\ &quot;hrs&quot;;[Red]\(#,##0\)\ &quot;hrs&quot;"/>
+    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00_)&quot;/unit avg&quot;;[Red]\(&quot;$&quot;#,##0.00\)&quot;/unit avg&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,###&quot;   (FMV)&quot;"/>
+    <numFmt numFmtId="188" formatCode="#0\ &quot;hrs/wk&quot;"/>
+    <numFmt numFmtId="189" formatCode="#,##0\ &quot;hrs/year&quot;"/>
+    <numFmt numFmtId="190" formatCode="&quot;$&quot;#,##0.00\)&quot;/hr PTO&quot;;[Red]\(&quot;$&quot;#,##0.00\)&quot;/hr  PTO&quot;"/>
+    <numFmt numFmtId="191" formatCode="#0\ &quot;out of 52 wks worked/yr&quot;"/>
+    <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_)&quot;salary fully annualized&quot;"/>
+    <numFmt numFmtId="193" formatCode="&quot;$&quot;##,##0&quot;/mo&quot;"/>
+    <numFmt numFmtId="194" formatCode="&quot;weighted avg:&quot;\ &quot;$&quot;#,##0.00&quot;/hr&quot;;[Red]&quot;weighted avg: &quot;\(&quot;$&quot;#,##0.00\)&quot;/hr&quot;"/>
+    <numFmt numFmtId="195" formatCode="#0\ &quot;wks/yr&quot;"/>
+    <numFmt numFmtId="196" formatCode="&quot;FMV: &quot;&quot;$&quot;#,##0&quot;/yr&quot;"/>
+    <numFmt numFmtId="197" formatCode="#,##0\ &quot;gross annual hrs&quot;"/>
+    <numFmt numFmtId="198" formatCode="#0.0\ &quot;hrs/wk&quot;"/>
   </numFmts>
   <fonts count="45" x14ac:knownFonts="1">
     <font>
@@ -1246,22 +1245,22 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1282,8 +1281,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1296,27 +1295,23 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1462,19 +1457,19 @@
     <xf numFmtId="170" fontId="30" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,10 +1554,10 @@
     <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="206" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,7 +1592,7 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,10 +1601,10 @@
     <xf numFmtId="0" fontId="20" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="206" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,13 +1623,13 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="211" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="206" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,16 +1731,16 @@
     <xf numFmtId="3" fontId="30" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="30" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="217" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="217" fontId="31" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="31" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1816,13 +1811,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="219" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="225" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="224" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="30" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,7 +1826,7 @@
     <xf numFmtId="3" fontId="32" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,7 +1841,7 @@
     <xf numFmtId="166" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="30" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,13 +1856,13 @@
     <xf numFmtId="164" fontId="30" fillId="20" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="30" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="30" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,7 +1889,7 @@
     <xf numFmtId="3" fontId="30" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="30" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="30" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="14" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,7 +1901,7 @@
     <xf numFmtId="6" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="231" fontId="32" fillId="12" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="32" fillId="12" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="32" fillId="12" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,25 +1931,25 @@
     <xf numFmtId="4" fontId="30" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="30" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="215" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="30" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="30" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="175" fontId="30" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="30" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,19 +1964,19 @@
     <xf numFmtId="3" fontId="32" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="233" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="30" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="208" fontId="32" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="32" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="219" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="235" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="230" fontId="30" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="30" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,7 +1985,7 @@
     <xf numFmtId="10" fontId="30" fillId="14" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="30" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2014,10 +2009,10 @@
     <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="208" fontId="31" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="239" fontId="31" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="31" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,7 +2024,7 @@
     <xf numFmtId="4" fontId="30" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="239" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2038,7 +2033,7 @@
     <xf numFmtId="3" fontId="30" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="239" fontId="31" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="31" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,7 +2042,7 @@
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="221" fontId="30" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="30" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2061,16 +2056,16 @@
     <xf numFmtId="170" fontId="31" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="237" fontId="30" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="30" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="236" fontId="31" fillId="11" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="31" fillId="11" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="11" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="11" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="20" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,16 +2123,16 @@
     <xf numFmtId="3" fontId="30" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="32" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="32" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="219" fontId="32" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="32" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="239" fontId="32" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="32" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="219" fontId="20" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="20" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2149,13 +2144,13 @@
     <xf numFmtId="3" fontId="32" fillId="12" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="32" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="30" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="231" fontId="30" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="30" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="30" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,7 +2159,7 @@
     <xf numFmtId="6" fontId="32" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="231" fontId="32" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="32" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="32" fillId="12" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,6 +2196,10 @@
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2273,7 +2272,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2559,11 +2557,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="217002512"/>
-        <c:axId val="217005632"/>
+        <c:axId val="-1166707696"/>
+        <c:axId val="-1170518880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217002512"/>
+        <c:axId val="-1166707696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2583,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2602,7 +2599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217005632"/>
+        <c:crossAx val="-1170518880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2610,7 +2607,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217005632"/>
+        <c:axId val="-1170518880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,14 +2641,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217002512"/>
+        <c:crossAx val="-1166707696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2877,19 +2873,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="USA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3221,10 +3204,10 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="373"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4337,7 +4320,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="92"/>
+      <c r="J27" s="88"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="2"/>
@@ -4363,11 +4346,11 @@
       <c r="C28" s="55"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="374" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="H28" s="375"/>
+      <c r="I28" s="375"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -33744,4521 +33727,4533 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="302" customWidth="1"/>
-    <col min="2" max="2" width="0.6640625" style="302" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="303" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="304" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="305" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="306" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="70" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="1" style="70" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="307" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="307" customWidth="1"/>
-    <col min="13" max="13" width="0.83203125" style="70" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="307" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="307" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="307" customWidth="1"/>
-    <col min="17" max="17" width="1.5" style="70" customWidth="1"/>
-    <col min="18" max="18" width="2.1640625" style="70" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="308" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="302" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="308" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="70" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="70" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="309" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="310" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1640625" style="309" customWidth="1"/>
-    <col min="27" max="27" width="0.83203125" style="302" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" style="310" customWidth="1"/>
-    <col min="29" max="31" width="10.83203125" style="302"/>
+    <col min="1" max="1" width="1.6640625" style="298" customWidth="1"/>
+    <col min="2" max="2" width="0.6640625" style="298" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="299" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="300" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="301" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="302" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="66" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="66" customWidth="1"/>
+    <col min="10" max="10" width="1" style="66" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="303" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="303" customWidth="1"/>
+    <col min="13" max="13" width="0.83203125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="303" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="303" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="303" customWidth="1"/>
+    <col min="17" max="17" width="1.5" style="66" customWidth="1"/>
+    <col min="18" max="18" width="2.1640625" style="66" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="304" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="298" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" style="304" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="66" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="66" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="305" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" style="306" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="305" customWidth="1"/>
+    <col min="27" max="27" width="0.83203125" style="298" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" style="306" customWidth="1"/>
+    <col min="29" max="31" width="10.83203125" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="74" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:28" s="70" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="142"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="78"/>
-      <c r="AB1" s="127"/>
-    </row>
-    <row r="2" spans="1:28" s="74" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="73"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="78"/>
-      <c r="AB2" s="127"/>
-    </row>
-    <row r="3" spans="1:28" s="74" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="B3" s="163" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="138"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="74"/>
+      <c r="AB1" s="123"/>
+    </row>
+    <row r="2" spans="1:28" s="70" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="69"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="74"/>
+      <c r="AB2" s="123"/>
+    </row>
+    <row r="3" spans="1:28" s="70" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="B3" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="78"/>
-      <c r="AB3" s="127"/>
-    </row>
-    <row r="4" spans="1:28" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="157" t="s">
+      <c r="C3" s="159"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="74"/>
+      <c r="AB3" s="123"/>
+    </row>
+    <row r="4" spans="1:28" s="70" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="61"/>
+      <c r="C4" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="159" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="159" t="s">
+      <c r="I4" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="165" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="78"/>
-      <c r="AB4" s="127"/>
-    </row>
-    <row r="5" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="143" t="s">
+      <c r="M4" s="64"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="74"/>
+      <c r="AB4" s="123"/>
+    </row>
+    <row r="5" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="61"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="151">
+      <c r="H5" s="147">
         <v>0</v>
       </c>
-      <c r="I5" s="167">
+      <c r="I5" s="163">
         <f>-V32</f>
         <v>-2000</v>
       </c>
-      <c r="K5" s="176">
+      <c r="K5" s="172">
         <f>H5+I5</f>
         <v>-2000</v>
       </c>
-      <c r="L5" s="179" t="s">
+      <c r="L5" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="78"/>
-      <c r="AB5" s="127"/>
-    </row>
-    <row r="6" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="65"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="136" t="s">
+      <c r="M5" s="64"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="74"/>
+      <c r="AB5" s="123"/>
+    </row>
+    <row r="6" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="61"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="173">
         <f ca="1">K12/-K5</f>
-        <v>114.69083333333337</v>
-      </c>
-      <c r="I6" s="150"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="68"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="78"/>
-      <c r="AB6" s="127"/>
-    </row>
-    <row r="7" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="144"/>
-      <c r="I7" s="150"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="68"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="78"/>
-      <c r="AB7" s="127"/>
-    </row>
-    <row r="8" spans="1:28" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
-      <c r="C8" s="152" t="s">
+        <v>114.69083333333334</v>
+      </c>
+      <c r="I6" s="146"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="64"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="74"/>
+      <c r="AB6" s="123"/>
+    </row>
+    <row r="7" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="140"/>
+      <c r="I7" s="146"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="64"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="74"/>
+      <c r="AB7" s="123"/>
+    </row>
+    <row r="8" spans="1:28" s="70" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="61"/>
+      <c r="C8" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="156" t="s">
+      <c r="I8" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="162"/>
-      <c r="K8" s="169" t="s">
+      <c r="J8" s="158"/>
+      <c r="K8" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="68"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="78"/>
-      <c r="AB8" s="127"/>
-    </row>
-    <row r="9" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
-      <c r="D9" s="136" t="s">
+      <c r="L8" s="73"/>
+      <c r="M8" s="64"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="74"/>
+      <c r="AB8" s="123"/>
+    </row>
+    <row r="9" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="61"/>
+      <c r="D9" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="141">
         <f>$AB$46</f>
         <v>114600</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="141">
         <f>G9</f>
         <v>114600</v>
       </c>
-      <c r="I9" s="145">
+      <c r="I9" s="141">
         <v>0</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="71">
         <f>H9+I9</f>
         <v>114600</v>
       </c>
-      <c r="L9" s="179" t="s">
+      <c r="L9" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="78"/>
-      <c r="AB9" s="127"/>
-    </row>
-    <row r="10" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="65"/>
-      <c r="D10" s="136" t="s">
+      <c r="M9" s="64"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="74"/>
+      <c r="AB9" s="123"/>
+    </row>
+    <row r="10" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="61"/>
+      <c r="D10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="145">
+      <c r="G10" s="141">
         <f ca="1">$AB$82</f>
         <v>44222.243589743593</v>
       </c>
-      <c r="H10" s="145">
+      <c r="H10" s="141">
         <f t="shared" ref="H10:H11" ca="1" si="0">G10</f>
         <v>44222.243589743593</v>
       </c>
-      <c r="I10" s="145">
+      <c r="I10" s="141">
         <v>0</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="71">
         <f ca="1">H10+I10</f>
         <v>44222.243589743593</v>
       </c>
-      <c r="L10" s="179" t="s">
+      <c r="L10" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="78"/>
-      <c r="AB10" s="127"/>
-    </row>
-    <row r="11" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="65"/>
-      <c r="D11" s="136" t="s">
+      <c r="M10" s="64"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="74"/>
+      <c r="AB10" s="123"/>
+    </row>
+    <row r="11" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="61"/>
+      <c r="D11" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="141">
         <f>$AB$60</f>
         <v>70559.423076923078</v>
       </c>
-      <c r="H11" s="145">
+      <c r="H11" s="141">
         <f t="shared" si="0"/>
         <v>70559.423076923078</v>
       </c>
-      <c r="I11" s="145">
+      <c r="I11" s="141">
         <v>0</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="71">
         <f>H11+I11</f>
         <v>70559.423076923078</v>
       </c>
-      <c r="L11" s="179" t="s">
+      <c r="L11" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="78"/>
-      <c r="AB11" s="127"/>
-    </row>
-    <row r="12" spans="1:28" s="74" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="68"/>
-      <c r="H12" s="146">
+      <c r="M11" s="64"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="74"/>
+      <c r="AB11" s="123"/>
+    </row>
+    <row r="12" spans="1:28" s="70" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="61"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="64"/>
+      <c r="H12" s="142">
         <f ca="1">SUM(H9:H11)</f>
         <v>229381.66666666669</v>
       </c>
-      <c r="I12" s="146">
+      <c r="I12" s="142">
         <f>SUM(I9:I11)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="170">
+      <c r="K12" s="166">
         <f ca="1">H12+I12</f>
         <v>229381.66666666669</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="68"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="78"/>
-      <c r="AB12" s="127"/>
-    </row>
-    <row r="13" spans="1:28" s="74" customFormat="1" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="129"/>
-      <c r="E13" s="68"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="68"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="68"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="78"/>
-      <c r="AB13" s="127"/>
-    </row>
-    <row r="14" spans="1:28" s="74" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="64"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="74"/>
+      <c r="AB12" s="123"/>
+    </row>
+    <row r="13" spans="1:28" s="70" customFormat="1" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="125"/>
+      <c r="E13" s="64"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="64"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="64"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="74"/>
+      <c r="AB13" s="123"/>
+    </row>
+    <row r="14" spans="1:28" s="70" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="B14" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="74" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="78"/>
-      <c r="AB14" s="127"/>
-    </row>
-    <row r="15" spans="1:28" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="157" t="s">
+      <c r="O14" s="71"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="74"/>
+      <c r="AB14" s="123"/>
+    </row>
+    <row r="15" spans="1:28" s="70" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="133"/>
+      <c r="C15" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159" t="s">
+      <c r="D15" s="174"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="159" t="s">
+      <c r="I15" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="165" t="s">
+      <c r="J15" s="63"/>
+      <c r="K15" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="74" t="s">
+      <c r="L15" s="73"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="78"/>
-      <c r="AB15" s="127"/>
-    </row>
-    <row r="16" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="143" t="s">
+      <c r="O15" s="71"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="74"/>
+      <c r="AB15" s="123"/>
+    </row>
+    <row r="16" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="61"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="164">
+      <c r="H16" s="160">
         <v>2000</v>
       </c>
-      <c r="I16" s="167">
+      <c r="I16" s="163">
         <v>-200</v>
       </c>
-      <c r="K16" s="175">
+      <c r="K16" s="171">
         <f>H16+I16</f>
         <v>1800</v>
       </c>
-      <c r="L16" s="179" t="s">
+      <c r="L16" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="78"/>
-      <c r="AB16" s="127"/>
-    </row>
-    <row r="17" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="65"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="136" t="s">
+      <c r="M16" s="64"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="74"/>
+      <c r="AB16" s="123"/>
+    </row>
+    <row r="17" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="61"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="177">
+      <c r="G17" s="173">
         <f ca="1">K23/K16</f>
-        <v>-127.43425925925931</v>
-      </c>
-      <c r="H17" s="179"/>
-      <c r="M17" s="68"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="78"/>
-      <c r="AB17" s="127"/>
-    </row>
-    <row r="18" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="144"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="68"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="78"/>
-      <c r="AB18" s="127"/>
-    </row>
-    <row r="19" spans="1:28" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="152" t="s">
+        <v>-127.43425925925926</v>
+      </c>
+      <c r="H17" s="175"/>
+      <c r="M17" s="64"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="74"/>
+      <c r="AB17" s="123"/>
+    </row>
+    <row r="18" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="61"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="140"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="64"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="74"/>
+      <c r="AB18" s="123"/>
+    </row>
+    <row r="19" spans="1:28" s="70" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="61"/>
+      <c r="C19" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="156" t="s">
+      <c r="D19" s="176"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="156" t="s">
+      <c r="I19" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="162"/>
-      <c r="K19" s="169" t="s">
+      <c r="J19" s="158"/>
+      <c r="K19" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="77"/>
-      <c r="M19" s="68"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="78"/>
-      <c r="AB19" s="127"/>
-    </row>
-    <row r="20" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="65"/>
-      <c r="D20" s="136" t="s">
+      <c r="L19" s="73"/>
+      <c r="M19" s="64"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="74"/>
+      <c r="AB19" s="123"/>
+    </row>
+    <row r="20" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="61"/>
+      <c r="D20" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="145">
+      <c r="G20" s="141">
         <f>$AB$46</f>
         <v>114600</v>
       </c>
-      <c r="H20" s="145">
+      <c r="H20" s="141">
         <v>0</v>
       </c>
-      <c r="I20" s="145">
+      <c r="I20" s="141">
         <f>-G20</f>
         <v>-114600</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="71">
         <f>H20+I20</f>
         <v>-114600</v>
       </c>
-      <c r="L20" s="179" t="s">
+      <c r="L20" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="78"/>
-      <c r="AB20" s="127"/>
-    </row>
-    <row r="21" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="65"/>
-      <c r="D21" s="136" t="s">
+      <c r="M20" s="64"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="74"/>
+      <c r="AB20" s="123"/>
+    </row>
+    <row r="21" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="61"/>
+      <c r="D21" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="145">
+      <c r="G21" s="141">
         <f ca="1">$AB$82</f>
         <v>44222.243589743593</v>
       </c>
-      <c r="H21" s="145">
+      <c r="H21" s="141">
         <v>0</v>
       </c>
-      <c r="I21" s="145">
+      <c r="I21" s="141">
         <f ca="1">-G21</f>
         <v>-44222.243589743593</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="71">
         <f ca="1">H21+I21</f>
         <v>-44222.243589743593</v>
       </c>
-      <c r="L21" s="179" t="s">
+      <c r="L21" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="78" t="s">
+      <c r="M21" s="64"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="78"/>
-      <c r="AB21" s="127"/>
-    </row>
-    <row r="22" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="65"/>
-      <c r="D22" s="136" t="s">
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="74"/>
+      <c r="AB21" s="123"/>
+    </row>
+    <row r="22" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="61"/>
+      <c r="D22" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="145">
+      <c r="G22" s="141">
         <f>$AB$60</f>
         <v>70559.423076923078</v>
       </c>
-      <c r="H22" s="145">
+      <c r="H22" s="141">
         <v>0</v>
       </c>
-      <c r="I22" s="145">
+      <c r="I22" s="141">
         <f>-G22</f>
         <v>-70559.423076923078</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="71">
         <f>H22+I22</f>
         <v>-70559.423076923078</v>
       </c>
-      <c r="L22" s="179" t="s">
+      <c r="L22" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="78"/>
-      <c r="AB22" s="127"/>
-    </row>
-    <row r="23" spans="1:28" s="74" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="D23" s="96"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="161">
+      <c r="M22" s="64"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="74"/>
+      <c r="AB22" s="123"/>
+    </row>
+    <row r="23" spans="1:28" s="70" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+      <c r="D23" s="92"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="157">
         <f>SUM(H20:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="161">
+      <c r="I23" s="157">
         <f ca="1">SUM(I20:I22)</f>
         <v>-229381.66666666669</v>
       </c>
-      <c r="K23" s="170">
+      <c r="K23" s="166">
         <f ca="1">H23+I23</f>
         <v>-229381.66666666669</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="78"/>
-      <c r="AB23" s="127"/>
-    </row>
-    <row r="24" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="65"/>
-      <c r="D24" s="96"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="78"/>
-      <c r="AB24" s="127"/>
-    </row>
-    <row r="25" spans="1:28" s="74" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="109" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="74"/>
+      <c r="AB23" s="123"/>
+    </row>
+    <row r="24" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="61"/>
+      <c r="D24" s="92"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="74"/>
+      <c r="AB24" s="123"/>
+    </row>
+    <row r="25" spans="1:28" s="70" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="107"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="109" t="s">
+      <c r="I25" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="108" t="s">
+      <c r="J25" s="64"/>
+      <c r="K25" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="107" t="s">
+      <c r="L25" s="104"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="72" t="s">
+      <c r="O25" s="103"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="U25" s="71"/>
-      <c r="V25" s="109" t="s">
+      <c r="U25" s="67"/>
+      <c r="V25" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="W25" s="109"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="110"/>
-      <c r="AB25" s="124"/>
-    </row>
-    <row r="26" spans="1:28" s="103" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="217"/>
-      <c r="B26" s="222"/>
-      <c r="C26" s="222" t="s">
+      <c r="W25" s="105"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="106"/>
+      <c r="AB25" s="120"/>
+    </row>
+    <row r="26" spans="1:28" s="99" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="213"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="223" t="s">
+      <c r="D26" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="223" t="s">
+      <c r="E26" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="256" t="s">
+      <c r="G26" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="317" t="s">
+      <c r="H26" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="325" t="s">
+      <c r="I26" s="321" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="101"/>
-      <c r="K26" s="332" t="s">
+      <c r="J26" s="97"/>
+      <c r="K26" s="328" t="s">
         <v>100</v>
       </c>
-      <c r="L26" s="336" t="s">
+      <c r="L26" s="332" t="s">
         <v>101</v>
       </c>
-      <c r="M26" s="102"/>
-      <c r="N26" s="332" t="s">
+      <c r="M26" s="98"/>
+      <c r="N26" s="328" t="s">
         <v>85</v>
       </c>
-      <c r="O26" s="257" t="s">
+      <c r="O26" s="253" t="s">
         <v>86</v>
       </c>
-      <c r="P26" s="336" t="s">
+      <c r="P26" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="211">
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="207">
         <f>SUM(S43:S83)</f>
         <v>80000</v>
       </c>
-      <c r="T26" s="211" t="e">
+      <c r="T26" s="207" t="e">
         <f>SUM(T43:T83)</f>
         <v>#REF!</v>
       </c>
-      <c r="U26" s="211">
+      <c r="U26" s="207">
         <f>SUM(U43:U83)</f>
         <v>108946</v>
       </c>
-      <c r="V26" s="256" t="s">
+      <c r="V26" s="252" t="s">
         <v>73</v>
       </c>
-      <c r="W26" s="256" t="s">
+      <c r="W26" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="X26" s="318" t="s">
+      <c r="X26" s="314" t="s">
         <v>129</v>
       </c>
-      <c r="Y26" s="318" t="s">
+      <c r="Y26" s="314" t="s">
         <v>76</v>
       </c>
-      <c r="Z26" s="350" t="s">
+      <c r="Z26" s="346" t="s">
         <v>75</v>
       </c>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="367" t="s">
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="363" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="106" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="372"/>
-      <c r="B27" s="372"/>
-      <c r="C27" s="373" t="s">
+    <row r="27" spans="1:28" s="102" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="368"/>
+      <c r="B27" s="368"/>
+      <c r="C27" s="369" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="374"/>
-      <c r="E27" s="375"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="320"/>
-      <c r="Y27" s="320"/>
-      <c r="Z27" s="320"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="321"/>
-    </row>
-    <row r="28" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C28" s="224" t="s">
+      <c r="D27" s="370"/>
+      <c r="E27" s="371"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="207"/>
+      <c r="T27" s="207"/>
+      <c r="U27" s="207"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="316"/>
+      <c r="Y27" s="316"/>
+      <c r="Z27" s="316"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="317"/>
+    </row>
+    <row r="28" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C28" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="224" t="s">
+      <c r="D28" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="225" t="s">
+      <c r="E28" s="221" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="258">
+      <c r="F28" s="59"/>
+      <c r="G28" s="254">
         <f>Y28</f>
         <v>200</v>
       </c>
-      <c r="H28" s="294">
+      <c r="H28" s="290">
         <f ca="1">-$K$23/$I$34</f>
         <v>117.03146258503402</v>
       </c>
-      <c r="I28" s="326">
+      <c r="I28" s="322">
         <f ca="1">G28*H28</f>
         <v>23406.292517006805</v>
       </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="333"/>
-      <c r="L28" s="346">
+      <c r="J28" s="60"/>
+      <c r="K28" s="329"/>
+      <c r="L28" s="342">
         <f>365*24</f>
         <v>8760</v>
       </c>
-      <c r="M28" s="196"/>
-      <c r="N28" s="335">
+      <c r="M28" s="192"/>
+      <c r="N28" s="331">
         <v>0</v>
       </c>
-      <c r="O28" s="246">
+      <c r="O28" s="242">
         <f>V28</f>
         <v>200</v>
       </c>
-      <c r="P28" s="337">
+      <c r="P28" s="333">
         <f>L28</f>
         <v>8760</v>
       </c>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="345"/>
-      <c r="S28" s="323"/>
-      <c r="T28" s="324"/>
-      <c r="U28" s="323"/>
-      <c r="V28" s="295">
+      <c r="Q28" s="119"/>
+      <c r="R28" s="341"/>
+      <c r="S28" s="319"/>
+      <c r="T28" s="320"/>
+      <c r="U28" s="319"/>
+      <c r="V28" s="291">
         <v>200</v>
       </c>
-      <c r="W28" s="312">
+      <c r="W28" s="308">
         <f>V28/X29</f>
         <v>4.0816326530612246</v>
       </c>
-      <c r="X28" s="297">
+      <c r="X28" s="293">
         <f>$W$34-$W$35-$W$36</f>
         <v>49</v>
       </c>
-      <c r="Y28" s="313">
+      <c r="Y28" s="309">
         <f>W28*X28</f>
         <v>200</v>
       </c>
-      <c r="Z28" s="351">
+      <c r="Z28" s="347">
         <v>200</v>
       </c>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="368">
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="364">
         <f>Z28</f>
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C29" s="224" t="s">
+    <row r="29" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C29" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="224" t="s">
+      <c r="D29" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="225" t="s">
+      <c r="E29" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="258">
+      <c r="F29" s="59"/>
+      <c r="G29" s="254">
         <f t="shared" ref="G29" si="1">Y29</f>
         <v>1444</v>
       </c>
-      <c r="H29" s="294">
+      <c r="H29" s="290">
         <f ca="1">-$K$23/$I$34</f>
         <v>117.03146258503402</v>
       </c>
-      <c r="I29" s="326">
+      <c r="I29" s="322">
         <f ca="1">G29*H29</f>
         <v>168993.43197278911</v>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="333">
+      <c r="J29" s="60"/>
+      <c r="K29" s="329">
         <v>0</v>
       </c>
-      <c r="L29" s="346">
+      <c r="L29" s="342">
         <f>365*24</f>
         <v>8760</v>
       </c>
-      <c r="M29" s="196"/>
-      <c r="N29" s="335">
+      <c r="M29" s="192"/>
+      <c r="N29" s="331">
         <v>0</v>
       </c>
-      <c r="O29" s="246">
+      <c r="O29" s="242">
         <f>V29</f>
         <v>40</v>
       </c>
-      <c r="P29" s="337">
+      <c r="P29" s="333">
         <f t="shared" ref="P29" si="2">L29</f>
         <v>8760</v>
       </c>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="345"/>
-      <c r="S29" s="323"/>
-      <c r="T29" s="324"/>
-      <c r="U29" s="323"/>
-      <c r="V29" s="296">
+      <c r="Q29" s="119"/>
+      <c r="R29" s="341"/>
+      <c r="S29" s="319"/>
+      <c r="T29" s="320"/>
+      <c r="U29" s="319"/>
+      <c r="V29" s="292">
         <v>40</v>
       </c>
-      <c r="W29" s="312">
+      <c r="W29" s="308">
         <f>V29-W30-(V28+V31)/X29</f>
         <v>29.469387755102041</v>
       </c>
-      <c r="X29" s="297">
+      <c r="X29" s="293">
         <f t="shared" ref="X29:X31" si="3">$W$34-$W$35-$W$36</f>
         <v>49</v>
       </c>
-      <c r="Y29" s="313">
+      <c r="Y29" s="309">
         <f>W29*X29</f>
         <v>1444</v>
       </c>
-      <c r="Z29" s="352">
+      <c r="Z29" s="348">
         <v>40</v>
       </c>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="368">
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="364">
         <f>Z29*X29-AB28-AB30-AB31</f>
         <v>1484</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C30" s="224" t="s">
+    <row r="30" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C30" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="224" t="s">
+      <c r="D30" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="225" t="s">
+      <c r="E30" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="258">
+      <c r="F30" s="59"/>
+      <c r="G30" s="254">
         <f t="shared" ref="G30" si="4">Y30</f>
         <v>196</v>
       </c>
-      <c r="H30" s="294">
+      <c r="H30" s="290">
         <f ca="1">-$K$23/$I$34</f>
         <v>117.03146258503402</v>
       </c>
-      <c r="I30" s="326">
+      <c r="I30" s="322">
         <f ca="1">G30*H30</f>
         <v>22938.166666666668</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="333">
+      <c r="J30" s="60"/>
+      <c r="K30" s="329">
         <v>0</v>
       </c>
-      <c r="L30" s="346">
+      <c r="L30" s="342">
         <f>365*24</f>
         <v>8760</v>
       </c>
-      <c r="M30" s="196"/>
-      <c r="N30" s="335">
+      <c r="M30" s="192"/>
+      <c r="N30" s="331">
         <v>0</v>
       </c>
-      <c r="O30" s="246">
+      <c r="O30" s="242">
         <f>V30</f>
         <v>120</v>
       </c>
-      <c r="P30" s="337">
+      <c r="P30" s="333">
         <f t="shared" ref="P30" si="5">L30</f>
         <v>8760</v>
       </c>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="345"/>
-      <c r="S30" s="323"/>
-      <c r="T30" s="324"/>
-      <c r="U30" s="323"/>
-      <c r="V30" s="311">
+      <c r="Q30" s="119"/>
+      <c r="R30" s="341"/>
+      <c r="S30" s="319"/>
+      <c r="T30" s="320"/>
+      <c r="U30" s="319"/>
+      <c r="V30" s="307">
         <f>V29*(G35+G36)</f>
         <v>120</v>
       </c>
-      <c r="W30" s="316">
+      <c r="W30" s="312">
         <v>4</v>
       </c>
-      <c r="X30" s="297">
+      <c r="X30" s="293">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="Y30" s="313">
+      <c r="Y30" s="309">
         <f>W30*X30</f>
         <v>196</v>
       </c>
-      <c r="Z30" s="353">
+      <c r="Z30" s="349">
         <v>4</v>
       </c>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="368">
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="364">
         <f>Z30*X30</f>
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C31" s="224" t="s">
+    <row r="31" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C31" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="224" t="s">
+      <c r="D31" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="225" t="s">
+      <c r="E31" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="258">
+      <c r="F31" s="59"/>
+      <c r="G31" s="254">
         <f>Y31</f>
         <v>120</v>
       </c>
-      <c r="H31" s="294">
+      <c r="H31" s="290">
         <f ca="1">-$K$23/$I$34</f>
         <v>117.03146258503402</v>
       </c>
-      <c r="I31" s="326">
+      <c r="I31" s="322">
         <f ca="1">G31*H31</f>
         <v>14043.775510204083</v>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="333">
+      <c r="J31" s="60"/>
+      <c r="K31" s="329">
         <v>0</v>
       </c>
-      <c r="L31" s="346">
+      <c r="L31" s="342">
         <f>365*24</f>
         <v>8760</v>
       </c>
-      <c r="M31" s="196"/>
-      <c r="N31" s="335">
+      <c r="M31" s="192"/>
+      <c r="N31" s="331">
         <v>0</v>
       </c>
-      <c r="O31" s="246">
+      <c r="O31" s="242">
         <f>V31</f>
         <v>120</v>
       </c>
-      <c r="P31" s="337">
+      <c r="P31" s="333">
         <f>L31</f>
         <v>8760</v>
       </c>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="345"/>
-      <c r="S31" s="323">
+      <c r="Q31" s="119"/>
+      <c r="R31" s="341"/>
+      <c r="S31" s="319">
         <f>N31</f>
         <v>0</v>
       </c>
-      <c r="T31" s="324" t="e">
+      <c r="T31" s="320" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U31" s="323">
+      <c r="U31" s="319">
         <f>P31</f>
         <v>8760</v>
       </c>
-      <c r="V31" s="295">
+      <c r="V31" s="291">
         <v>120</v>
       </c>
-      <c r="W31" s="312">
+      <c r="W31" s="308">
         <f>V31/X29</f>
         <v>2.4489795918367347</v>
       </c>
-      <c r="X31" s="297">
+      <c r="X31" s="293">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="Y31" s="313">
+      <c r="Y31" s="309">
         <f>W31*X31</f>
         <v>120</v>
       </c>
-      <c r="Z31" s="351">
+      <c r="Z31" s="347">
         <v>80</v>
       </c>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="368">
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="364">
         <f>Z31</f>
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="253">
+    <row r="32" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="249">
         <f>SUM(G28:G31)</f>
         <v>1960</v>
       </c>
-      <c r="H32" s="232"/>
-      <c r="I32" s="327">
+      <c r="H32" s="228"/>
+      <c r="I32" s="323">
         <f ca="1">SUM(I28:I31)</f>
         <v>229381.66666666666</v>
       </c>
-      <c r="J32" s="81"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="196"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="234"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="198"/>
-      <c r="U32" s="197"/>
-      <c r="V32" s="322">
+      <c r="J32" s="77"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="192"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="318">
         <f>2000</f>
         <v>2000</v>
       </c>
-      <c r="W32" s="319">
+      <c r="W32" s="315">
         <f>SUM(W28:W31)</f>
         <v>40</v>
       </c>
-      <c r="X32" s="235"/>
-      <c r="Y32" s="253">
+      <c r="X32" s="231"/>
+      <c r="Y32" s="249">
         <f>SUM(Y28:Y31)</f>
         <v>1960</v>
       </c>
-      <c r="Z32" s="236"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="253">
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="249">
         <f>SUM(AB28:AB31)</f>
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="130"/>
-    </row>
-    <row r="34" spans="1:31" s="60" customFormat="1" ht="20" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C34" s="62"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="230" t="s">
+    <row r="33" spans="1:31" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="125"/>
+      <c r="AB33" s="126"/>
+    </row>
+    <row r="34" spans="1:31" s="56" customFormat="1" ht="20" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C34" s="58"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="226" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="243">
+      <c r="F34" s="86"/>
+      <c r="G34" s="239">
         <f>Z34</f>
         <v>40</v>
       </c>
-      <c r="H34" s="244">
+      <c r="H34" s="240">
         <f>W37</f>
         <v>49</v>
       </c>
-      <c r="I34" s="328">
+      <c r="I34" s="324">
         <f>G34*H34</f>
         <v>1960</v>
       </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="333">
+      <c r="J34" s="87"/>
+      <c r="K34" s="329">
         <v>0</v>
       </c>
-      <c r="L34" s="346">
+      <c r="L34" s="342">
         <f t="shared" ref="L34" si="6">365*24</f>
         <v>8760</v>
       </c>
-      <c r="M34" s="189"/>
-      <c r="N34" s="335">
+      <c r="M34" s="185"/>
+      <c r="N34" s="331">
         <v>0</v>
       </c>
-      <c r="O34" s="246">
+      <c r="O34" s="242">
         <f>V34</f>
         <v>40</v>
       </c>
-      <c r="P34" s="338">
+      <c r="P34" s="334">
         <f>24*7</f>
         <v>168</v>
       </c>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="190"/>
-      <c r="T34" s="191"/>
-      <c r="U34" s="190"/>
-      <c r="V34" s="248">
+      <c r="Q34" s="119"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="186"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="186"/>
+      <c r="V34" s="244">
         <v>40</v>
       </c>
-      <c r="W34" s="249">
+      <c r="W34" s="245">
         <v>52</v>
       </c>
-      <c r="X34" s="250">
+      <c r="X34" s="246">
         <f>(W34-W35-W36)/W34</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="Y34" s="313">
+      <c r="Y34" s="309">
         <f ca="1">Y46+Y60+Y82</f>
         <v>223765.98076923075</v>
       </c>
-      <c r="Z34" s="354">
+      <c r="Z34" s="350">
         <v>40</v>
       </c>
-      <c r="AA34" s="97">
+      <c r="AA34" s="93">
         <f>(W34-W35-W36)/W34</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="AB34" s="368">
+      <c r="AB34" s="364">
         <f ca="1">AB46+AB60+AB82</f>
         <v>229381.66666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="60" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C35" s="62"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="230" t="s">
+    <row r="35" spans="1:31" s="56" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C35" s="58"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="237">
+      <c r="F35" s="86"/>
+      <c r="G35" s="233">
         <f>W35</f>
         <v>3</v>
       </c>
-      <c r="H35" s="245">
+      <c r="H35" s="241">
         <f ca="1">-$K$23/$I$34</f>
         <v>117.03146258503402</v>
       </c>
-      <c r="I35" s="329">
+      <c r="I35" s="325">
         <f ca="1">H35*V35*Z35</f>
         <v>18725.034013605444</v>
       </c>
-      <c r="J35" s="91"/>
-      <c r="K35" s="333">
+      <c r="J35" s="87"/>
+      <c r="K35" s="329">
         <v>0</v>
       </c>
-      <c r="L35" s="346">
+      <c r="L35" s="342">
         <f>V35*MAX(W35,Z35)</f>
         <v>160</v>
       </c>
-      <c r="M35" s="189"/>
-      <c r="N35" s="335">
+      <c r="M35" s="185"/>
+      <c r="N35" s="331">
         <v>0</v>
       </c>
-      <c r="O35" s="246">
+      <c r="O35" s="242">
         <f>W35</f>
         <v>3</v>
       </c>
-      <c r="P35" s="339">
+      <c r="P35" s="335">
         <v>6</v>
       </c>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="190"/>
-      <c r="T35" s="191"/>
-      <c r="U35" s="190"/>
-      <c r="V35" s="243">
+      <c r="Q35" s="119"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="187"/>
+      <c r="U35" s="186"/>
+      <c r="V35" s="239">
         <f>V34</f>
         <v>40</v>
       </c>
-      <c r="W35" s="252">
+      <c r="W35" s="248">
         <v>3</v>
       </c>
-      <c r="X35" s="250">
+      <c r="X35" s="246">
         <f>W35/W34</f>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="Y35" s="313">
+      <c r="Y35" s="309">
         <f ca="1">$K$12*X35</f>
         <v>13233.557692307693</v>
       </c>
-      <c r="Z35" s="355">
+      <c r="Z35" s="351">
         <v>4</v>
       </c>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="368">
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="364">
         <f ca="1">$K$12*Z35/$W$34</f>
         <v>17644.74358974359</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="60" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C36" s="62"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="230" t="s">
+    <row r="36" spans="1:31" s="56" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C36" s="58"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="237">
+      <c r="F36" s="86"/>
+      <c r="G36" s="233">
         <f>W36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="245">
+      <c r="H36" s="241">
         <f ca="1">-$K$23/$I$34</f>
         <v>117.03146258503402</v>
       </c>
-      <c r="I36" s="329">
+      <c r="I36" s="325">
         <f ca="1">H36*V36*Z36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="333">
+      <c r="J36" s="87"/>
+      <c r="K36" s="329">
         <v>0</v>
       </c>
-      <c r="L36" s="346">
+      <c r="L36" s="342">
         <f>V36*MAX(W36,Z36)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="189"/>
-      <c r="N36" s="335">
+      <c r="M36" s="185"/>
+      <c r="N36" s="331">
         <v>0</v>
       </c>
-      <c r="O36" s="246">
+      <c r="O36" s="242">
         <f>W36</f>
         <v>0</v>
       </c>
-      <c r="P36" s="339">
+      <c r="P36" s="335">
         <v>6</v>
       </c>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="190"/>
-      <c r="T36" s="191"/>
-      <c r="U36" s="190"/>
-      <c r="V36" s="243">
+      <c r="Q36" s="119"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="187"/>
+      <c r="U36" s="186"/>
+      <c r="V36" s="239">
         <f>V34</f>
         <v>40</v>
       </c>
-      <c r="W36" s="252">
+      <c r="W36" s="248">
         <v>0</v>
       </c>
-      <c r="X36" s="250">
+      <c r="X36" s="246">
         <f>W36/W34</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="313">
+      <c r="Y36" s="309">
         <f ca="1">$K$12*X36</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="355">
+      <c r="Z36" s="351">
         <v>0</v>
       </c>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="368">
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="364">
         <f ca="1">$K$12*Z36/$W$34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="79" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C37" s="80"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="231"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="259">
+    <row r="37" spans="1:31" s="75" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C37" s="76"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="255">
         <f>G35+G36</f>
         <v>3</v>
       </c>
-      <c r="H37" s="298">
+      <c r="H37" s="294">
         <f ca="1">I37+H36*I34</f>
         <v>248106.70068027213</v>
       </c>
-      <c r="I37" s="261">
+      <c r="I37" s="257">
         <f ca="1">I35+I36</f>
         <v>18725.034013605444</v>
       </c>
-      <c r="K37" s="242"/>
-      <c r="L37" s="242"/>
-      <c r="N37" s="242"/>
-      <c r="O37" s="242"/>
-      <c r="P37" s="242"/>
-      <c r="V37" s="242"/>
-      <c r="W37" s="259">
+      <c r="K37" s="238"/>
+      <c r="L37" s="238"/>
+      <c r="N37" s="238"/>
+      <c r="O37" s="238"/>
+      <c r="P37" s="238"/>
+      <c r="V37" s="238"/>
+      <c r="W37" s="255">
         <f>W34-W35-W36</f>
         <v>49</v>
       </c>
-      <c r="X37" s="242"/>
-      <c r="Y37" s="299">
+      <c r="X37" s="238"/>
+      <c r="Y37" s="295">
         <f ca="1">Y34-Y35-Y36</f>
         <v>210532.42307692306</v>
       </c>
-      <c r="Z37" s="259">
+      <c r="Z37" s="255">
         <f>W34-Z35-Z36</f>
         <v>48</v>
       </c>
-      <c r="AB37" s="299">
+      <c r="AB37" s="295">
         <f ca="1">AB34-AB35-AB36</f>
         <v>211736.92307692306</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="60" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C38" s="62"/>
-      <c r="D38" s="227" t="s">
+    <row r="38" spans="1:31" s="56" customFormat="1" ht="19" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C38" s="58"/>
+      <c r="D38" s="223" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="227"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="249">
+      <c r="E38" s="223"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="245">
         <v>52</v>
       </c>
-      <c r="H38" s="227"/>
-      <c r="I38" s="227"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="262"/>
-      <c r="L38" s="263"/>
-      <c r="M38" s="189"/>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
-      <c r="P38" s="263"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="190"/>
-      <c r="T38" s="191"/>
-      <c r="U38" s="190"/>
-      <c r="V38" s="264"/>
-      <c r="W38" s="264"/>
-      <c r="X38" s="264"/>
-      <c r="Y38" s="264"/>
-      <c r="Z38" s="264"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="265"/>
-    </row>
-    <row r="39" spans="1:31" s="60" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="182"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="184"/>
-      <c r="S39" s="185"/>
-      <c r="T39" s="186"/>
-      <c r="U39" s="185"/>
-      <c r="V39" s="188"/>
-      <c r="W39" s="187"/>
-      <c r="X39" s="187"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="187"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="125"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="258"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="185"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="258"/>
+      <c r="P38" s="259"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="186"/>
+      <c r="V38" s="260"/>
+      <c r="W38" s="260"/>
+      <c r="X38" s="260"/>
+      <c r="Y38" s="260"/>
+      <c r="Z38" s="260"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="261"/>
+    </row>
+    <row r="39" spans="1:31" s="56" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="178"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="182"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="184"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="121"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="121"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="134"/>
-      <c r="P40" s="134"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="134"/>
-      <c r="S40" s="134"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="134"/>
-      <c r="V40" s="134"/>
-      <c r="W40" s="134"/>
-      <c r="X40" s="134"/>
-      <c r="Y40" s="131"/>
-      <c r="Z40" s="131"/>
-      <c r="AA40" s="132"/>
-      <c r="AB40" s="131"/>
-      <c r="AC40" s="134"/>
-      <c r="AD40" s="134"/>
-      <c r="AE40" s="134"/>
-    </row>
-    <row r="41" spans="1:31" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="226"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="301"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="301"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="196"/>
-      <c r="N41" s="202"/>
-      <c r="O41" s="202"/>
-      <c r="P41" s="202"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="197"/>
-      <c r="T41" s="198"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="204"/>
-      <c r="W41" s="204"/>
-      <c r="X41" s="204"/>
-      <c r="Y41" s="301"/>
-      <c r="Z41" s="203"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="301"/>
-    </row>
-    <row r="42" spans="1:31" s="106" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="372"/>
-      <c r="B42" s="372"/>
-      <c r="C42" s="373" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="130"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="127"/>
+      <c r="Z40" s="127"/>
+      <c r="AA40" s="128"/>
+      <c r="AB40" s="127"/>
+      <c r="AC40" s="130"/>
+      <c r="AD40" s="130"/>
+      <c r="AE40" s="130"/>
+    </row>
+    <row r="41" spans="1:31" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="297"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="297"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="197"/>
+      <c r="L41" s="197"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="193"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="193"/>
+      <c r="V41" s="200"/>
+      <c r="W41" s="200"/>
+      <c r="X41" s="200"/>
+      <c r="Y41" s="297"/>
+      <c r="Z41" s="199"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="297"/>
+    </row>
+    <row r="42" spans="1:31" s="102" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="368"/>
+      <c r="B42" s="368"/>
+      <c r="C42" s="369" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="374"/>
-      <c r="E42" s="375"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="208" t="s">
+      <c r="D42" s="370"/>
+      <c r="E42" s="371"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="209" t="s">
+      <c r="H42" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="330" t="s">
+      <c r="I42" s="326" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="101"/>
-      <c r="K42" s="334" t="s">
+      <c r="J42" s="97"/>
+      <c r="K42" s="330" t="s">
         <v>100</v>
       </c>
-      <c r="L42" s="340" t="s">
+      <c r="L42" s="336" t="s">
         <v>101</v>
       </c>
-      <c r="M42" s="102"/>
-      <c r="N42" s="334" t="s">
+      <c r="M42" s="98"/>
+      <c r="N42" s="330" t="s">
         <v>85</v>
       </c>
-      <c r="O42" s="210" t="s">
+      <c r="O42" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="340" t="s">
+      <c r="P42" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="211">
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98"/>
+      <c r="S42" s="207">
         <f>SUM(S49:S83)</f>
         <v>0</v>
       </c>
-      <c r="T42" s="211" t="e">
+      <c r="T42" s="207" t="e">
         <f>SUM(T49:T83)</f>
         <v>#REF!</v>
       </c>
-      <c r="U42" s="211">
+      <c r="U42" s="207">
         <f>SUM(U49:U83)</f>
         <v>6973</v>
       </c>
-      <c r="V42" s="208" t="s">
+      <c r="V42" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="W42" s="208" t="s">
+      <c r="W42" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="X42" s="212" t="s">
+      <c r="X42" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="Y42" s="212" t="s">
+      <c r="Y42" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="Z42" s="356" t="s">
+      <c r="Z42" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="369" t="s">
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="365" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C43" s="224" t="s">
+    <row r="43" spans="1:31" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C43" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="224" t="s">
+      <c r="D43" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="225" t="s">
+      <c r="E43" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="289">
+      <c r="F43" s="59"/>
+      <c r="G43" s="285">
         <f>AB43</f>
         <v>5000</v>
       </c>
-      <c r="H43" s="290">
+      <c r="H43" s="286">
         <v>1</v>
       </c>
-      <c r="I43" s="331">
+      <c r="I43" s="327">
         <f>G43*H43</f>
         <v>5000</v>
       </c>
-      <c r="J43" s="64"/>
-      <c r="K43" s="335">
+      <c r="J43" s="60"/>
+      <c r="K43" s="331">
         <v>0</v>
       </c>
-      <c r="L43" s="347">
+      <c r="L43" s="343">
         <v>100</v>
       </c>
-      <c r="M43" s="196"/>
-      <c r="N43" s="348">
+      <c r="M43" s="192"/>
+      <c r="N43" s="344">
         <v>2000</v>
       </c>
-      <c r="O43" s="246">
+      <c r="O43" s="242">
         <f t="shared" ref="O43:O45" si="7">V43</f>
         <v>5000</v>
       </c>
-      <c r="P43" s="341">
+      <c r="P43" s="337">
         <v>10000</v>
       </c>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="184"/>
-      <c r="S43" s="185"/>
-      <c r="T43" s="186"/>
-      <c r="U43" s="185"/>
-      <c r="V43" s="254">
+      <c r="Q43" s="93"/>
+      <c r="R43" s="180"/>
+      <c r="S43" s="181"/>
+      <c r="T43" s="182"/>
+      <c r="U43" s="181"/>
+      <c r="V43" s="250">
         <v>5000</v>
       </c>
-      <c r="W43" s="247">
+      <c r="W43" s="243">
         <v>1</v>
       </c>
-      <c r="X43" s="247">
+      <c r="X43" s="243">
         <v>1</v>
       </c>
-      <c r="Y43" s="251">
+      <c r="Y43" s="247">
         <f>V43*W43</f>
         <v>5000</v>
       </c>
-      <c r="Z43" s="357">
+      <c r="Z43" s="353">
         <v>1</v>
       </c>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="368">
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="364">
         <f>Y43</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C44" s="224" t="s">
+    <row r="44" spans="1:31" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C44" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="224" t="s">
+      <c r="D44" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="225" t="s">
+      <c r="E44" s="221" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="63"/>
-      <c r="G44" s="291">
+      <c r="F44" s="59"/>
+      <c r="G44" s="287">
         <f>AB44</f>
         <v>100000</v>
       </c>
-      <c r="H44" s="290">
+      <c r="H44" s="286">
         <v>1</v>
       </c>
-      <c r="I44" s="326">
+      <c r="I44" s="322">
         <f>G44*H44</f>
         <v>100000</v>
       </c>
-      <c r="J44" s="64"/>
-      <c r="K44" s="335">
+      <c r="J44" s="60"/>
+      <c r="K44" s="331">
         <v>0</v>
       </c>
-      <c r="L44" s="347">
+      <c r="L44" s="343">
         <v>100</v>
       </c>
-      <c r="M44" s="196"/>
-      <c r="N44" s="348">
+      <c r="M44" s="192"/>
+      <c r="N44" s="344">
         <v>80000</v>
       </c>
-      <c r="O44" s="246">
+      <c r="O44" s="242">
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="P44" s="341">
+      <c r="P44" s="337">
         <v>120000</v>
       </c>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="184"/>
-      <c r="S44" s="185">
+      <c r="Q44" s="93"/>
+      <c r="R44" s="180"/>
+      <c r="S44" s="181">
         <f>N44</f>
         <v>80000</v>
       </c>
-      <c r="T44" s="186" t="e">
+      <c r="T44" s="182" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U44" s="185">
+      <c r="U44" s="181">
         <f>O44</f>
         <v>100000</v>
       </c>
-      <c r="V44" s="255">
+      <c r="V44" s="251">
         <v>100000</v>
       </c>
-      <c r="W44" s="247">
+      <c r="W44" s="243">
         <v>1</v>
       </c>
-      <c r="X44" s="293">
+      <c r="X44" s="289">
         <v>1</v>
       </c>
-      <c r="Y44" s="313">
+      <c r="Y44" s="309">
         <f t="shared" ref="Y44:Y45" si="8">V44*W44*X44</f>
         <v>100000</v>
       </c>
-      <c r="Z44" s="339">
+      <c r="Z44" s="335">
         <v>1</v>
       </c>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="368">
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="364">
         <f>Y44</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C45" s="224" t="s">
+    <row r="45" spans="1:31" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C45" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="224" t="s">
+      <c r="D45" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="225" t="s">
+      <c r="E45" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="291">
+      <c r="F45" s="59"/>
+      <c r="G45" s="287">
         <f>AB45</f>
         <v>9600</v>
       </c>
-      <c r="H45" s="290">
+      <c r="H45" s="286">
         <v>1</v>
       </c>
-      <c r="I45" s="326">
+      <c r="I45" s="322">
         <f>G45*H45</f>
         <v>9600</v>
       </c>
-      <c r="J45" s="64"/>
-      <c r="K45" s="335">
+      <c r="J45" s="60"/>
+      <c r="K45" s="331">
         <v>0</v>
       </c>
-      <c r="L45" s="347">
+      <c r="L45" s="343">
         <v>100</v>
       </c>
-      <c r="M45" s="196"/>
-      <c r="N45" s="348">
+      <c r="M45" s="192"/>
+      <c r="N45" s="344">
         <v>7000</v>
       </c>
-      <c r="O45" s="246">
+      <c r="O45" s="242">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="P45" s="341">
+      <c r="P45" s="337">
         <v>13000</v>
       </c>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="184"/>
-      <c r="S45" s="185"/>
-      <c r="T45" s="186"/>
-      <c r="U45" s="185"/>
-      <c r="V45" s="255">
+      <c r="Q45" s="93"/>
+      <c r="R45" s="180"/>
+      <c r="S45" s="181"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="181"/>
+      <c r="V45" s="251">
         <v>25000</v>
       </c>
-      <c r="W45" s="274">
+      <c r="W45" s="270">
         <v>0.08</v>
       </c>
-      <c r="X45" s="293">
+      <c r="X45" s="289">
         <v>4</v>
       </c>
-      <c r="Y45" s="313">
+      <c r="Y45" s="309">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="Z45" s="342">
+      <c r="Z45" s="338">
         <v>30000</v>
       </c>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="368">
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="364">
         <f t="shared" ref="AB45" si="9">Z45*W45*X45</f>
         <v>9600</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="266">
+    <row r="46" spans="1:31" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="222"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="262">
         <f>SUM(G43:G45)</f>
         <v>114600</v>
       </c>
-      <c r="H46" s="205"/>
-      <c r="I46" s="266">
+      <c r="H46" s="201"/>
+      <c r="I46" s="262">
         <f>SUM(I43:I45)</f>
         <v>114600</v>
       </c>
-      <c r="J46" s="81"/>
-      <c r="K46" s="201"/>
-      <c r="L46" s="201"/>
-      <c r="M46" s="196"/>
-      <c r="N46" s="292">
+      <c r="J46" s="77"/>
+      <c r="K46" s="197"/>
+      <c r="L46" s="197"/>
+      <c r="M46" s="192"/>
+      <c r="N46" s="288">
         <f>SUM(N43:N45)</f>
         <v>89000</v>
       </c>
-      <c r="O46" s="201"/>
-      <c r="P46" s="292">
+      <c r="O46" s="197"/>
+      <c r="P46" s="288">
         <f>SUM(P43:P45)</f>
         <v>143000</v>
       </c>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="197"/>
-      <c r="T46" s="198"/>
-      <c r="U46" s="197"/>
-      <c r="V46" s="206"/>
-      <c r="W46" s="206"/>
-      <c r="X46" s="207"/>
-      <c r="Y46" s="266">
+      <c r="Q46" s="93"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="193"/>
+      <c r="T46" s="194"/>
+      <c r="U46" s="193"/>
+      <c r="V46" s="202"/>
+      <c r="W46" s="202"/>
+      <c r="X46" s="203"/>
+      <c r="Y46" s="262">
         <f>SUM(Y43:Y45)</f>
         <v>113000</v>
       </c>
-      <c r="Z46" s="122"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="213">
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="93"/>
+      <c r="AB46" s="209">
         <f>SUM(AB43:AB45)</f>
         <v>114600</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="213"/>
-      <c r="H47" s="205"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="196"/>
-      <c r="N47" s="214"/>
-      <c r="O47" s="201"/>
-      <c r="P47" s="214"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="123"/>
-      <c r="S47" s="197"/>
-      <c r="T47" s="198"/>
-      <c r="U47" s="197"/>
-      <c r="V47" s="206"/>
-      <c r="W47" s="206"/>
-      <c r="X47" s="207"/>
-      <c r="Y47" s="213"/>
-      <c r="Z47" s="266"/>
-      <c r="AA47" s="97"/>
-      <c r="AB47" s="213"/>
-    </row>
-    <row r="48" spans="1:31" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="372"/>
-      <c r="B48" s="372"/>
-      <c r="C48" s="373" t="s">
+    <row r="47" spans="1:31" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="222"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="209"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="197"/>
+      <c r="L47" s="197"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="210"/>
+      <c r="O47" s="197"/>
+      <c r="P47" s="210"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="193"/>
+      <c r="T47" s="194"/>
+      <c r="U47" s="193"/>
+      <c r="V47" s="202"/>
+      <c r="W47" s="202"/>
+      <c r="X47" s="203"/>
+      <c r="Y47" s="209"/>
+      <c r="Z47" s="262"/>
+      <c r="AA47" s="93"/>
+      <c r="AB47" s="209"/>
+    </row>
+    <row r="48" spans="1:31" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="368"/>
+      <c r="B48" s="368"/>
+      <c r="C48" s="369" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="374"/>
-      <c r="E48" s="375"/>
-      <c r="G48" s="208" t="s">
+      <c r="D48" s="370"/>
+      <c r="E48" s="371"/>
+      <c r="G48" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="H48" s="209" t="s">
+      <c r="H48" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="330" t="s">
+      <c r="I48" s="326" t="s">
         <v>127</v>
       </c>
-      <c r="J48" s="101"/>
-      <c r="K48" s="334" t="s">
+      <c r="J48" s="97"/>
+      <c r="K48" s="330" t="s">
         <v>100</v>
       </c>
-      <c r="L48" s="340" t="s">
+      <c r="L48" s="336" t="s">
         <v>101</v>
       </c>
-      <c r="M48" s="102"/>
-      <c r="N48" s="334" t="s">
+      <c r="M48" s="98"/>
+      <c r="N48" s="330" t="s">
         <v>85</v>
       </c>
-      <c r="O48" s="210" t="s">
+      <c r="O48" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="P48" s="340" t="s">
+      <c r="P48" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="211">
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="207">
         <f>SUM(S54:S83)</f>
         <v>0</v>
       </c>
-      <c r="T48" s="211" t="e">
+      <c r="T48" s="207" t="e">
         <f>SUM(T54:T83)</f>
         <v>#REF!</v>
       </c>
-      <c r="U48" s="211">
+      <c r="U48" s="207">
         <f>SUM(U54:U83)</f>
         <v>1973</v>
       </c>
-      <c r="V48" s="208" t="s">
+      <c r="V48" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="W48" s="208" t="s">
+      <c r="W48" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="X48" s="212" t="s">
+      <c r="X48" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="Y48" s="213" t="s">
+      <c r="Y48" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="Z48" s="213" t="s">
+      <c r="Z48" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="AA48" s="97"/>
-      <c r="AB48" s="369" t="s">
+      <c r="AA48" s="93"/>
+      <c r="AB48" s="365" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C49" s="224" t="s">
+    <row r="49" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C49" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="224" t="s">
+      <c r="D49" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="225" t="s">
+      <c r="E49" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="283">
+      <c r="F49" s="59"/>
+      <c r="G49" s="279">
         <f>AB49</f>
         <v>41303.076923076922</v>
       </c>
-      <c r="H49" s="284">
+      <c r="H49" s="280">
         <f>($V$56*$W$56+$V$57*$W$57)/($V$56+$V$57)</f>
         <v>6.8838461538461537</v>
       </c>
-      <c r="I49" s="331">
+      <c r="I49" s="327">
         <f>G49*H49</f>
         <v>284324.02721893491</v>
       </c>
-      <c r="J49" s="64"/>
-      <c r="K49" s="335">
+      <c r="J49" s="60"/>
+      <c r="K49" s="331">
         <v>0</v>
       </c>
-      <c r="L49" s="347">
+      <c r="L49" s="343">
         <v>100</v>
       </c>
-      <c r="M49" s="196"/>
-      <c r="N49" s="335">
+      <c r="M49" s="192"/>
+      <c r="N49" s="331">
         <v>0</v>
       </c>
-      <c r="O49" s="246">
+      <c r="O49" s="242">
         <f t="shared" ref="O49:O51" si="10">V49</f>
         <v>24000</v>
       </c>
-      <c r="P49" s="337">
+      <c r="P49" s="333">
         <f>L49</f>
         <v>100</v>
       </c>
-      <c r="Q49" s="123"/>
-      <c r="R49" s="184"/>
-      <c r="S49" s="185"/>
-      <c r="T49" s="186"/>
-      <c r="U49" s="185"/>
-      <c r="V49" s="254">
+      <c r="Q49" s="119"/>
+      <c r="R49" s="180"/>
+      <c r="S49" s="181"/>
+      <c r="T49" s="182"/>
+      <c r="U49" s="181"/>
+      <c r="V49" s="250">
         <v>24000</v>
       </c>
-      <c r="W49" s="315">
+      <c r="W49" s="311">
         <f>H49</f>
         <v>6.8838461538461537</v>
       </c>
-      <c r="X49" s="280">
+      <c r="X49" s="276">
         <v>0.25</v>
       </c>
-      <c r="Y49" s="313">
+      <c r="Y49" s="309">
         <f>V49*W49*X49</f>
         <v>41303.076923076922</v>
       </c>
-      <c r="Z49" s="342">
+      <c r="Z49" s="338">
         <v>24000</v>
       </c>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="368">
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="364">
         <f>Z49*W49*X49</f>
         <v>41303.076923076922</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C50" s="224" t="s">
+    <row r="50" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C50" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="224" t="s">
+      <c r="D50" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="225" t="s">
+      <c r="E50" s="221" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="63"/>
-      <c r="G50" s="285">
+      <c r="F50" s="59"/>
+      <c r="G50" s="281">
         <f>AB50</f>
         <v>20651.538461538461</v>
       </c>
-      <c r="H50" s="284">
+      <c r="H50" s="280">
         <f>($V$56*$W$56+$V$57*$W$57)/($V$56+$V$57)</f>
         <v>6.8838461538461537</v>
       </c>
-      <c r="I50" s="326">
+      <c r="I50" s="322">
         <f t="shared" ref="I50:I51" si="11">G50*H50</f>
         <v>142162.01360946745</v>
       </c>
-      <c r="J50" s="64"/>
-      <c r="K50" s="335">
+      <c r="J50" s="60"/>
+      <c r="K50" s="331">
         <v>0</v>
       </c>
-      <c r="L50" s="347">
+      <c r="L50" s="343">
         <v>100</v>
       </c>
-      <c r="M50" s="196"/>
-      <c r="N50" s="335">
+      <c r="M50" s="192"/>
+      <c r="N50" s="331">
         <v>0</v>
       </c>
-      <c r="O50" s="246">
+      <c r="O50" s="242">
         <f t="shared" si="10"/>
         <v>12000</v>
       </c>
-      <c r="P50" s="337">
+      <c r="P50" s="333">
         <f t="shared" ref="P50:P51" si="12">L50</f>
         <v>100</v>
       </c>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="184"/>
-      <c r="S50" s="185"/>
-      <c r="T50" s="186"/>
-      <c r="U50" s="185"/>
-      <c r="V50" s="255">
+      <c r="Q50" s="119"/>
+      <c r="R50" s="180"/>
+      <c r="S50" s="181"/>
+      <c r="T50" s="182"/>
+      <c r="U50" s="181"/>
+      <c r="V50" s="251">
         <v>12000</v>
       </c>
-      <c r="W50" s="315">
+      <c r="W50" s="311">
         <f>H50</f>
         <v>6.8838461538461537</v>
       </c>
-      <c r="X50" s="280">
+      <c r="X50" s="276">
         <v>0.25</v>
       </c>
-      <c r="Y50" s="313">
+      <c r="Y50" s="309">
         <f>V50*W50*X50</f>
         <v>20651.538461538461</v>
       </c>
-      <c r="Z50" s="342">
+      <c r="Z50" s="338">
         <v>12000</v>
       </c>
-      <c r="AA50" s="97"/>
-      <c r="AB50" s="368">
+      <c r="AA50" s="93"/>
+      <c r="AB50" s="364">
         <f>Z50*W50*X50</f>
         <v>20651.538461538461</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C51" s="224" t="s">
+    <row r="51" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C51" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="224" t="s">
+      <c r="D51" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="225" t="s">
+      <c r="E51" s="221" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="285">
+      <c r="F51" s="59"/>
+      <c r="G51" s="281">
         <f>AB51</f>
         <v>8604.8076923076915</v>
       </c>
-      <c r="H51" s="284">
+      <c r="H51" s="280">
         <f>($V$56*$W$56+$V$57*$W$57)/($V$56+$V$57)</f>
         <v>6.8838461538461537</v>
       </c>
-      <c r="I51" s="326">
+      <c r="I51" s="322">
         <f t="shared" si="11"/>
         <v>59234.172337278098</v>
       </c>
-      <c r="J51" s="64"/>
-      <c r="K51" s="335">
+      <c r="J51" s="60"/>
+      <c r="K51" s="331">
         <v>0</v>
       </c>
-      <c r="L51" s="347">
+      <c r="L51" s="343">
         <v>100</v>
       </c>
-      <c r="M51" s="196"/>
-      <c r="N51" s="335">
+      <c r="M51" s="192"/>
+      <c r="N51" s="331">
         <v>0</v>
       </c>
-      <c r="O51" s="246">
+      <c r="O51" s="242">
         <f t="shared" si="10"/>
         <v>5000</v>
       </c>
-      <c r="P51" s="337">
+      <c r="P51" s="333">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="184"/>
-      <c r="S51" s="185">
+      <c r="Q51" s="119"/>
+      <c r="R51" s="180"/>
+      <c r="S51" s="181">
         <f>N51</f>
         <v>0</v>
       </c>
-      <c r="T51" s="186" t="e">
+      <c r="T51" s="182" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U51" s="185">
+      <c r="U51" s="181">
         <f>O51</f>
         <v>5000</v>
       </c>
-      <c r="V51" s="255">
+      <c r="V51" s="251">
         <v>5000</v>
       </c>
-      <c r="W51" s="315">
+      <c r="W51" s="311">
         <f>H51</f>
         <v>6.8838461538461537</v>
       </c>
-      <c r="X51" s="280">
+      <c r="X51" s="276">
         <v>0.25</v>
       </c>
-      <c r="Y51" s="313">
+      <c r="Y51" s="309">
         <f>V51*W51*X51</f>
         <v>8604.8076923076915</v>
       </c>
-      <c r="Z51" s="342">
+      <c r="Z51" s="338">
         <v>5000</v>
       </c>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="368">
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="364">
         <f>Z51*W51*X51</f>
         <v>8604.8076923076915</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="60" customFormat="1" ht="9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="130"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="130"/>
-      <c r="T52" s="130"/>
-      <c r="U52" s="130"/>
-      <c r="V52" s="130"/>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="130"/>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="130"/>
-    </row>
-    <row r="53" spans="1:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="62"/>
-      <c r="E53" s="227" t="s">
+    <row r="52" spans="1:28" s="56" customFormat="1" ht="9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="223"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="126"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="126"/>
+      <c r="T52" s="126"/>
+      <c r="U52" s="126"/>
+      <c r="V52" s="126"/>
+      <c r="W52" s="126"/>
+      <c r="X52" s="126"/>
+      <c r="Y52" s="126"/>
+      <c r="Z52" s="126"/>
+      <c r="AA52" s="125"/>
+      <c r="AB52" s="126"/>
+    </row>
+    <row r="53" spans="1:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="58"/>
+      <c r="E53" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="286">
+      <c r="F53" s="86"/>
+      <c r="G53" s="282">
         <f>O53</f>
         <v>3000</v>
       </c>
-      <c r="H53" s="135"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="335">
+      <c r="H53" s="131"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="331">
         <v>0</v>
       </c>
-      <c r="L53" s="347">
+      <c r="L53" s="343">
         <v>100</v>
       </c>
-      <c r="M53" s="189"/>
-      <c r="N53" s="335">
+      <c r="M53" s="185"/>
+      <c r="N53" s="331">
         <v>0</v>
       </c>
-      <c r="O53" s="281">
+      <c r="O53" s="277">
         <f>V53</f>
         <v>3000</v>
       </c>
-      <c r="P53" s="342">
+      <c r="P53" s="338">
         <v>5000</v>
       </c>
-      <c r="Q53" s="123"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="190"/>
-      <c r="T53" s="191"/>
-      <c r="U53" s="190"/>
-      <c r="V53" s="255">
+      <c r="Q53" s="119"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="186"/>
+      <c r="T53" s="187"/>
+      <c r="U53" s="186"/>
+      <c r="V53" s="251">
         <v>3000</v>
       </c>
-      <c r="W53" s="247">
+      <c r="W53" s="243">
         <v>1</v>
       </c>
-      <c r="X53" s="126"/>
-      <c r="Y53" s="313">
+      <c r="X53" s="122"/>
+      <c r="Y53" s="309">
         <f>V53*W53</f>
         <v>3000</v>
       </c>
-      <c r="Z53" s="342">
+      <c r="Z53" s="338">
         <v>5000</v>
       </c>
-      <c r="AA53" s="97"/>
-      <c r="AB53" s="368">
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="364">
         <f>Z53</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="62"/>
-      <c r="E54" s="227" t="s">
+    <row r="54" spans="1:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="58"/>
+      <c r="E54" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="90" t="s">
+      <c r="F54" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="G54" s="287">
+      <c r="G54" s="283">
         <f>V54</f>
         <v>7.68</v>
       </c>
-      <c r="H54" s="118"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="335">
+      <c r="H54" s="114"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="331">
         <v>0</v>
       </c>
-      <c r="L54" s="347">
+      <c r="L54" s="343">
         <v>100</v>
       </c>
-      <c r="M54" s="189"/>
-      <c r="N54" s="349">
+      <c r="M54" s="185"/>
+      <c r="N54" s="345">
         <v>0</v>
       </c>
-      <c r="O54" s="282">
+      <c r="O54" s="278">
         <f>G54</f>
         <v>7.68</v>
       </c>
-      <c r="P54" s="343">
+      <c r="P54" s="339">
         <v>20</v>
       </c>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="190"/>
-      <c r="T54" s="191"/>
-      <c r="U54" s="190"/>
-      <c r="V54" s="278">
+      <c r="Q54" s="119"/>
+      <c r="R54" s="114"/>
+      <c r="S54" s="186"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="186"/>
+      <c r="V54" s="274">
         <v>7.68</v>
       </c>
-      <c r="W54" s="247">
+      <c r="W54" s="243">
         <v>1</v>
       </c>
-      <c r="X54" s="126"/>
-      <c r="Y54" s="314">
+      <c r="X54" s="122"/>
+      <c r="Y54" s="310">
         <f>V54*W54</f>
         <v>7.68</v>
       </c>
-      <c r="Z54" s="358">
+      <c r="Z54" s="354">
         <v>7.8</v>
       </c>
-      <c r="AA54" s="97"/>
-      <c r="AB54" s="370">
+      <c r="AA54" s="93"/>
+      <c r="AB54" s="366">
         <f>Z54</f>
         <v>7.8</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="62"/>
-      <c r="E55" s="227" t="s">
+    <row r="55" spans="1:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="58"/>
+      <c r="E55" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="287">
+      <c r="F55" s="86"/>
+      <c r="G55" s="283">
         <f>V55</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="H55" s="118"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="192"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="189"/>
-      <c r="N55" s="192"/>
-      <c r="O55" s="192"/>
-      <c r="P55" s="192"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="190"/>
-      <c r="T55" s="191"/>
-      <c r="U55" s="190"/>
-      <c r="V55" s="278">
+      <c r="H55" s="114"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="188"/>
+      <c r="L55" s="188"/>
+      <c r="M55" s="185"/>
+      <c r="N55" s="188"/>
+      <c r="O55" s="188"/>
+      <c r="P55" s="188"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="114"/>
+      <c r="S55" s="186"/>
+      <c r="T55" s="187"/>
+      <c r="U55" s="186"/>
+      <c r="V55" s="274">
         <v>2.0699999999999998</v>
       </c>
-      <c r="W55" s="247">
+      <c r="W55" s="243">
         <v>1</v>
       </c>
-      <c r="X55" s="126"/>
-      <c r="Y55" s="126"/>
-      <c r="Z55" s="193"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="126"/>
-    </row>
-    <row r="56" spans="1:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="62"/>
-      <c r="E56" s="227" t="s">
+      <c r="X55" s="122"/>
+      <c r="Y55" s="122"/>
+      <c r="Z55" s="189"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="122"/>
+    </row>
+    <row r="56" spans="1:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="58"/>
+      <c r="E56" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="90"/>
-      <c r="G56" s="288">
+      <c r="F56" s="86"/>
+      <c r="G56" s="284">
         <f>(V54-V55)*V56</f>
         <v>84149.999999999985</v>
       </c>
-      <c r="H56" s="118"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="192"/>
-      <c r="L56" s="192"/>
-      <c r="M56" s="189"/>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="123"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="190"/>
-      <c r="T56" s="191"/>
-      <c r="U56" s="190"/>
-      <c r="V56" s="247">
+      <c r="H56" s="114"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="188"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="185"/>
+      <c r="N56" s="188"/>
+      <c r="O56" s="188"/>
+      <c r="P56" s="188"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="186"/>
+      <c r="T56" s="187"/>
+      <c r="U56" s="186"/>
+      <c r="V56" s="243">
         <v>15000</v>
       </c>
-      <c r="W56" s="279">
+      <c r="W56" s="275">
         <f>$V$54-$V$55</f>
         <v>5.6099999999999994</v>
       </c>
-      <c r="X56" s="126"/>
-      <c r="Y56" s="126"/>
-      <c r="Z56" s="193"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="126"/>
-    </row>
-    <row r="57" spans="1:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="62"/>
-      <c r="E57" s="227" t="s">
+      <c r="X56" s="122"/>
+      <c r="Y56" s="122"/>
+      <c r="Z56" s="189"/>
+      <c r="AA56" s="93"/>
+      <c r="AB56" s="122"/>
+    </row>
+    <row r="57" spans="1:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="58"/>
+      <c r="E57" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="90"/>
-      <c r="G57" s="288">
+      <c r="F57" s="86"/>
+      <c r="G57" s="284">
         <f>V54*V57</f>
         <v>184320</v>
       </c>
-      <c r="H57" s="118"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="194"/>
-      <c r="L57" s="192"/>
-      <c r="M57" s="189"/>
-      <c r="N57" s="194"/>
-      <c r="O57" s="194"/>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="123"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="190"/>
-      <c r="T57" s="191"/>
-      <c r="U57" s="190"/>
-      <c r="V57" s="247">
+      <c r="H57" s="114"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="185"/>
+      <c r="N57" s="190"/>
+      <c r="O57" s="190"/>
+      <c r="P57" s="188"/>
+      <c r="Q57" s="119"/>
+      <c r="R57" s="114"/>
+      <c r="S57" s="186"/>
+      <c r="T57" s="187"/>
+      <c r="U57" s="186"/>
+      <c r="V57" s="243">
         <v>24000</v>
       </c>
-      <c r="W57" s="279">
+      <c r="W57" s="275">
         <f>$V$54</f>
         <v>7.68</v>
       </c>
-      <c r="X57" s="126"/>
-      <c r="Y57" s="126"/>
-      <c r="Z57" s="193"/>
-      <c r="AA57" s="97"/>
-      <c r="AB57" s="126"/>
-    </row>
-    <row r="58" spans="1:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="62"/>
-      <c r="D58" s="227" t="s">
+      <c r="X57" s="122"/>
+      <c r="Y57" s="122"/>
+      <c r="Z57" s="189"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="122"/>
+    </row>
+    <row r="58" spans="1:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="58"/>
+      <c r="D58" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="227"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="260">
+      <c r="E58" s="223"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="256">
         <f>G56+G57</f>
         <v>268470</v>
       </c>
-      <c r="H58" s="118"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="192"/>
-      <c r="M58" s="189"/>
-      <c r="N58" s="194"/>
-      <c r="O58" s="194"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="123"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="190"/>
-      <c r="T58" s="191"/>
-      <c r="U58" s="190"/>
-      <c r="V58" s="194"/>
-      <c r="W58" s="193"/>
-      <c r="X58" s="193"/>
-      <c r="Y58" s="126"/>
-      <c r="Z58" s="193"/>
-      <c r="AA58" s="97"/>
-      <c r="AB58" s="126"/>
-    </row>
-    <row r="59" spans="1:28" s="60" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="228"/>
-      <c r="D59" s="228"/>
-      <c r="E59" s="228"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="182"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="196"/>
-      <c r="N59" s="182"/>
-      <c r="O59" s="181"/>
-      <c r="P59" s="183"/>
-      <c r="Q59" s="123"/>
-      <c r="R59" s="184"/>
-      <c r="S59" s="185"/>
-      <c r="T59" s="186"/>
-      <c r="U59" s="185"/>
-      <c r="V59" s="188"/>
-      <c r="W59" s="187"/>
-      <c r="X59" s="187"/>
-      <c r="Y59" s="125"/>
-      <c r="Z59" s="187"/>
-      <c r="AA59" s="97"/>
-      <c r="AB59" s="125"/>
-    </row>
-    <row r="60" spans="1:28" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C60" s="80"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="215">
+      <c r="H58" s="114"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="190"/>
+      <c r="L58" s="188"/>
+      <c r="M58" s="185"/>
+      <c r="N58" s="190"/>
+      <c r="O58" s="190"/>
+      <c r="P58" s="188"/>
+      <c r="Q58" s="119"/>
+      <c r="R58" s="114"/>
+      <c r="S58" s="186"/>
+      <c r="T58" s="187"/>
+      <c r="U58" s="186"/>
+      <c r="V58" s="190"/>
+      <c r="W58" s="189"/>
+      <c r="X58" s="189"/>
+      <c r="Y58" s="122"/>
+      <c r="Z58" s="189"/>
+      <c r="AA58" s="93"/>
+      <c r="AB58" s="122"/>
+    </row>
+    <row r="59" spans="1:28" s="56" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="224"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="178"/>
+      <c r="L59" s="178"/>
+      <c r="M59" s="192"/>
+      <c r="N59" s="178"/>
+      <c r="O59" s="177"/>
+      <c r="P59" s="179"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="180"/>
+      <c r="S59" s="181"/>
+      <c r="T59" s="182"/>
+      <c r="U59" s="181"/>
+      <c r="V59" s="184"/>
+      <c r="W59" s="183"/>
+      <c r="X59" s="183"/>
+      <c r="Y59" s="121"/>
+      <c r="Z59" s="183"/>
+      <c r="AA59" s="93"/>
+      <c r="AB59" s="121"/>
+    </row>
+    <row r="60" spans="1:28" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C60" s="76"/>
+      <c r="D60" s="225"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="211">
         <f>SUM(G49:G51)</f>
         <v>70559.423076923078</v>
       </c>
-      <c r="H60" s="123"/>
-      <c r="I60" s="218">
+      <c r="H60" s="119"/>
+      <c r="I60" s="214">
         <f>SUM(I49:I51)</f>
         <v>485720.21316568047</v>
       </c>
-      <c r="J60" s="81"/>
-      <c r="K60" s="195"/>
-      <c r="L60" s="195"/>
-      <c r="M60" s="196"/>
-      <c r="N60" s="195"/>
-      <c r="O60" s="195"/>
-      <c r="P60" s="195"/>
-      <c r="Q60" s="123"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="197"/>
-      <c r="T60" s="198"/>
-      <c r="U60" s="197"/>
-      <c r="V60" s="215">
+      <c r="J60" s="77"/>
+      <c r="K60" s="191"/>
+      <c r="L60" s="191"/>
+      <c r="M60" s="192"/>
+      <c r="N60" s="191"/>
+      <c r="O60" s="191"/>
+      <c r="P60" s="191"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="193"/>
+      <c r="T60" s="194"/>
+      <c r="U60" s="193"/>
+      <c r="V60" s="211">
         <f>SUM(V49:V51)</f>
         <v>41000</v>
       </c>
-      <c r="W60" s="200"/>
-      <c r="X60" s="199"/>
-      <c r="Y60" s="213">
+      <c r="W60" s="196"/>
+      <c r="X60" s="195"/>
+      <c r="Y60" s="209">
         <f>SUM(Y49:Y51)</f>
         <v>70559.423076923078</v>
       </c>
-      <c r="Z60" s="127">
+      <c r="Z60" s="123">
         <f>SUM(Z49:Z51)</f>
         <v>41000</v>
       </c>
-      <c r="AA60" s="97"/>
-      <c r="AB60" s="213">
+      <c r="AA60" s="93"/>
+      <c r="AB60" s="209">
         <f>SUM(AB49:AB51)</f>
         <v>70559.423076923078</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C61" s="80"/>
-      <c r="D61" s="229"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="215"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="216"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="195"/>
-      <c r="L61" s="195"/>
-      <c r="M61" s="196"/>
-      <c r="N61" s="195"/>
-      <c r="O61" s="195"/>
-      <c r="P61" s="195"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="197"/>
-      <c r="T61" s="198"/>
-      <c r="U61" s="197"/>
-      <c r="V61" s="215"/>
-      <c r="W61" s="200"/>
-      <c r="X61" s="199"/>
-      <c r="Y61" s="213"/>
-      <c r="Z61" s="199"/>
-      <c r="AA61" s="97"/>
-      <c r="AB61" s="213"/>
-    </row>
-    <row r="62" spans="1:28" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="372"/>
-      <c r="B62" s="372"/>
-      <c r="C62" s="373" t="s">
+    <row r="61" spans="1:28" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C61" s="76"/>
+      <c r="D61" s="225"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="212"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="191"/>
+      <c r="L61" s="191"/>
+      <c r="M61" s="192"/>
+      <c r="N61" s="191"/>
+      <c r="O61" s="191"/>
+      <c r="P61" s="191"/>
+      <c r="Q61" s="119"/>
+      <c r="R61" s="119"/>
+      <c r="S61" s="193"/>
+      <c r="T61" s="194"/>
+      <c r="U61" s="193"/>
+      <c r="V61" s="211"/>
+      <c r="W61" s="196"/>
+      <c r="X61" s="195"/>
+      <c r="Y61" s="209"/>
+      <c r="Z61" s="195"/>
+      <c r="AA61" s="93"/>
+      <c r="AB61" s="209"/>
+    </row>
+    <row r="62" spans="1:28" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="368"/>
+      <c r="B62" s="368"/>
+      <c r="C62" s="369" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="374"/>
-      <c r="E62" s="375"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="208" t="s">
+      <c r="D62" s="370"/>
+      <c r="E62" s="371"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="209" t="s">
+      <c r="H62" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="330" t="s">
+      <c r="I62" s="326" t="s">
         <v>127</v>
       </c>
-      <c r="J62" s="101"/>
-      <c r="K62" s="334" t="s">
+      <c r="J62" s="97"/>
+      <c r="K62" s="330" t="s">
         <v>100</v>
       </c>
-      <c r="L62" s="340" t="s">
+      <c r="L62" s="336" t="s">
         <v>101</v>
       </c>
-      <c r="M62" s="102"/>
-      <c r="N62" s="334" t="s">
+      <c r="M62" s="98"/>
+      <c r="N62" s="330" t="s">
         <v>85</v>
       </c>
-      <c r="O62" s="210" t="s">
+      <c r="O62" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="P62" s="340" t="s">
+      <c r="P62" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="102"/>
-      <c r="S62" s="211">
+      <c r="Q62" s="98"/>
+      <c r="R62" s="98"/>
+      <c r="S62" s="207">
         <f>SUM(S68:S83)</f>
         <v>0</v>
       </c>
-      <c r="T62" s="211">
+      <c r="T62" s="207">
         <f>SUM(T68:T83)</f>
         <v>0</v>
       </c>
-      <c r="U62" s="211">
+      <c r="U62" s="207">
         <f>SUM(U68:U83)</f>
         <v>0</v>
       </c>
-      <c r="V62" s="208" t="s">
+      <c r="V62" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="W62" s="208" t="s">
+      <c r="W62" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="X62" s="212" t="s">
+      <c r="X62" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="Y62" s="212" t="s">
+      <c r="Y62" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="Z62" s="356" t="s">
+      <c r="Z62" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="AA62" s="97"/>
-      <c r="AB62" s="369" t="s">
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="365" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C63" s="224" t="s">
+    <row r="63" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C63" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="224" t="s">
+      <c r="D63" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="230" t="s">
+      <c r="E63" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="267">
+      <c r="F63" s="59"/>
+      <c r="G63" s="263">
         <f>V63</f>
         <v>0</v>
       </c>
-      <c r="H63" s="290">
+      <c r="H63" s="286">
         <v>1</v>
       </c>
-      <c r="I63" s="331">
+      <c r="I63" s="327">
         <f>G63*H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="64"/>
-      <c r="K63" s="335">
+      <c r="J63" s="60"/>
+      <c r="K63" s="331">
         <v>0</v>
       </c>
-      <c r="L63" s="347">
+      <c r="L63" s="343">
         <v>100</v>
       </c>
-      <c r="M63" s="196"/>
-      <c r="N63" s="335">
+      <c r="M63" s="192"/>
+      <c r="N63" s="331">
         <v>0</v>
       </c>
-      <c r="O63" s="246">
+      <c r="O63" s="242">
         <f t="shared" ref="O63:O65" si="13">V63</f>
         <v>0</v>
       </c>
-      <c r="P63" s="342">
+      <c r="P63" s="338">
         <v>5000</v>
       </c>
-      <c r="Q63" s="97"/>
-      <c r="R63" s="184"/>
-      <c r="S63" s="185"/>
-      <c r="T63" s="186"/>
-      <c r="U63" s="185"/>
-      <c r="V63" s="267">
+      <c r="Q63" s="93"/>
+      <c r="R63" s="180"/>
+      <c r="S63" s="181"/>
+      <c r="T63" s="182"/>
+      <c r="U63" s="181"/>
+      <c r="V63" s="263">
         <f>V67</f>
         <v>0</v>
       </c>
-      <c r="W63" s="247">
+      <c r="W63" s="243">
         <v>1</v>
       </c>
-      <c r="X63" s="247">
+      <c r="X63" s="243">
         <v>1</v>
       </c>
-      <c r="Y63" s="270">
+      <c r="Y63" s="266">
         <f>V63*W63*X63</f>
         <v>0</v>
       </c>
-      <c r="Z63" s="359">
+      <c r="Z63" s="355">
         <f>Z67</f>
         <v>0</v>
       </c>
-      <c r="AA63" s="97"/>
-      <c r="AB63" s="368">
+      <c r="AA63" s="93"/>
+      <c r="AB63" s="364">
         <f>AB67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C64" s="224" t="s">
+    <row r="64" spans="1:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C64" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="224" t="s">
+      <c r="D64" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="230" t="s">
+      <c r="E64" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="269">
+      <c r="F64" s="59"/>
+      <c r="G64" s="265">
         <f>V64</f>
         <v>1973</v>
       </c>
-      <c r="H64" s="290">
+      <c r="H64" s="286">
         <v>12</v>
       </c>
-      <c r="I64" s="326">
+      <c r="I64" s="322">
         <f>G64*H64</f>
         <v>23676</v>
       </c>
-      <c r="J64" s="64"/>
-      <c r="K64" s="335">
+      <c r="J64" s="60"/>
+      <c r="K64" s="331">
         <v>0</v>
       </c>
-      <c r="L64" s="347">
+      <c r="L64" s="343">
         <v>100</v>
       </c>
-      <c r="M64" s="196"/>
-      <c r="N64" s="335">
+      <c r="M64" s="192"/>
+      <c r="N64" s="331">
         <v>0</v>
       </c>
-      <c r="O64" s="246">
+      <c r="O64" s="242">
         <f t="shared" si="13"/>
         <v>1973</v>
       </c>
-      <c r="P64" s="342">
+      <c r="P64" s="338">
         <v>50000</v>
       </c>
-      <c r="Q64" s="97"/>
-      <c r="R64" s="184"/>
-      <c r="S64" s="185">
+      <c r="Q64" s="93"/>
+      <c r="R64" s="180"/>
+      <c r="S64" s="181">
         <f>N64</f>
         <v>0</v>
       </c>
-      <c r="T64" s="186" t="e">
+      <c r="T64" s="182" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U64" s="185">
+      <c r="U64" s="181">
         <f>O64</f>
         <v>1973</v>
       </c>
-      <c r="V64" s="269">
+      <c r="V64" s="265">
         <f>SUM(V68:V72)+Y73</f>
         <v>1973</v>
       </c>
-      <c r="W64" s="247">
+      <c r="W64" s="243">
         <v>1</v>
       </c>
-      <c r="X64" s="247">
+      <c r="X64" s="243">
         <v>12</v>
       </c>
-      <c r="Y64" s="270">
+      <c r="Y64" s="266">
         <f>V64*W64*X64</f>
         <v>23676</v>
       </c>
-      <c r="Z64" s="360">
+      <c r="Z64" s="356">
         <f>SUM(Z68:Z72)+AB73</f>
         <v>1877.5</v>
       </c>
-      <c r="AA64" s="97"/>
-      <c r="AB64" s="371">
+      <c r="AA64" s="93"/>
+      <c r="AB64" s="367">
         <f>Z64*W64*X64</f>
         <v>22530</v>
       </c>
     </row>
-    <row r="65" spans="3:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C65" s="224" t="s">
+    <row r="65" spans="3:28" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C65" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="224" t="s">
+      <c r="D65" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="230" t="s">
+      <c r="E65" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="63"/>
-      <c r="G65" s="271">
+      <c r="F65" s="59"/>
+      <c r="G65" s="267">
         <f>V65</f>
         <v>9600</v>
       </c>
-      <c r="H65" s="290">
+      <c r="H65" s="286">
         <v>1</v>
       </c>
-      <c r="I65" s="326">
+      <c r="I65" s="322">
         <f>G65*H65</f>
         <v>9600</v>
       </c>
-      <c r="J65" s="64"/>
-      <c r="K65" s="335">
+      <c r="J65" s="60"/>
+      <c r="K65" s="331">
         <v>0</v>
       </c>
-      <c r="L65" s="347">
+      <c r="L65" s="343">
         <v>100</v>
       </c>
-      <c r="M65" s="196"/>
-      <c r="N65" s="335">
+      <c r="M65" s="192"/>
+      <c r="N65" s="331">
         <v>0</v>
       </c>
-      <c r="O65" s="246">
+      <c r="O65" s="242">
         <f t="shared" si="13"/>
         <v>9600</v>
       </c>
-      <c r="P65" s="342">
+      <c r="P65" s="338">
         <v>5000</v>
       </c>
-      <c r="Q65" s="97"/>
-      <c r="R65" s="184"/>
-      <c r="S65" s="185"/>
-      <c r="T65" s="186"/>
-      <c r="U65" s="185"/>
-      <c r="V65" s="271">
+      <c r="Q65" s="93"/>
+      <c r="R65" s="180"/>
+      <c r="S65" s="181"/>
+      <c r="T65" s="182"/>
+      <c r="U65" s="181"/>
+      <c r="V65" s="267">
         <f>SUM(V74:V78)</f>
         <v>9600</v>
       </c>
-      <c r="W65" s="247">
+      <c r="W65" s="243">
         <v>1</v>
       </c>
-      <c r="X65" s="247">
+      <c r="X65" s="243">
         <v>1</v>
       </c>
-      <c r="Y65" s="270">
+      <c r="Y65" s="266">
         <f>V65*W65*X65</f>
         <v>9600</v>
       </c>
-      <c r="Z65" s="361">
+      <c r="Z65" s="357">
         <f>SUM(Z74:Z78)</f>
         <v>6600.9</v>
       </c>
-      <c r="AA65" s="97"/>
-      <c r="AB65" s="371">
+      <c r="AA65" s="93"/>
+      <c r="AB65" s="367">
         <f>Z65*W65*X65</f>
         <v>6600.9</v>
       </c>
     </row>
-    <row r="66" spans="3:28" s="60" customFormat="1" ht="9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="129"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="130"/>
-      <c r="Q66" s="123"/>
-      <c r="R66" s="130"/>
-      <c r="S66" s="130"/>
-      <c r="T66" s="130"/>
-      <c r="U66" s="130"/>
-      <c r="V66" s="130"/>
-      <c r="W66" s="130"/>
-      <c r="X66" s="130"/>
-      <c r="Y66" s="130"/>
-      <c r="Z66" s="130"/>
-      <c r="AA66" s="129"/>
-      <c r="AB66" s="130"/>
-    </row>
-    <row r="67" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="62"/>
-      <c r="D67" s="224" t="s">
+    <row r="66" spans="3:28" s="56" customFormat="1" ht="9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="223"/>
+      <c r="D66" s="223"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="125"/>
+      <c r="N66" s="126"/>
+      <c r="O66" s="126"/>
+      <c r="P66" s="126"/>
+      <c r="Q66" s="119"/>
+      <c r="R66" s="126"/>
+      <c r="S66" s="126"/>
+      <c r="T66" s="126"/>
+      <c r="U66" s="126"/>
+      <c r="V66" s="126"/>
+      <c r="W66" s="126"/>
+      <c r="X66" s="126"/>
+      <c r="Y66" s="126"/>
+      <c r="Z66" s="126"/>
+      <c r="AA66" s="125"/>
+      <c r="AB66" s="126"/>
+    </row>
+    <row r="67" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="58"/>
+      <c r="D67" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="225" t="s">
+      <c r="E67" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="90"/>
-      <c r="G67" s="288">
+      <c r="F67" s="86"/>
+      <c r="G67" s="284">
         <f>(V65-V66)*V67</f>
         <v>0</v>
       </c>
-      <c r="H67" s="118"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="182">
+      <c r="H67" s="114"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="178">
         <v>0</v>
       </c>
-      <c r="L67" s="182">
+      <c r="L67" s="178">
         <v>100</v>
       </c>
-      <c r="M67" s="189"/>
-      <c r="N67" s="182">
+      <c r="M67" s="185"/>
+      <c r="N67" s="178">
         <v>0</v>
       </c>
-      <c r="O67" s="281">
+      <c r="O67" s="277">
         <f>V67</f>
         <v>0</v>
       </c>
-      <c r="P67" s="344">
+      <c r="P67" s="340">
         <f>O67</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="190"/>
-      <c r="T67" s="191"/>
-      <c r="U67" s="190"/>
-      <c r="V67" s="272">
+      <c r="Q67" s="119"/>
+      <c r="R67" s="114"/>
+      <c r="S67" s="186"/>
+      <c r="T67" s="187"/>
+      <c r="U67" s="186"/>
+      <c r="V67" s="268">
         <v>0</v>
       </c>
-      <c r="W67" s="247">
+      <c r="W67" s="243">
         <v>1</v>
       </c>
-      <c r="X67" s="268">
+      <c r="X67" s="264">
         <v>1</v>
       </c>
-      <c r="Y67" s="251">
-        <f>V67*W67*X67</f>
+      <c r="Y67" s="247">
+        <f t="shared" ref="Y67:Y72" si="14">V67*W67*X67</f>
         <v>0</v>
       </c>
-      <c r="Z67" s="362">
+      <c r="Z67" s="358">
         <v>0</v>
       </c>
-      <c r="AA67" s="97"/>
-      <c r="AB67" s="368">
+      <c r="AA67" s="93"/>
+      <c r="AB67" s="364">
         <f>Z67*W67*X67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="62"/>
-      <c r="D68" s="224" t="s">
+    <row r="68" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="58"/>
+      <c r="D68" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="225" t="s">
+      <c r="E68" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="90"/>
-      <c r="G68" s="240">
+      <c r="F68" s="86"/>
+      <c r="G68" s="236">
         <v>800</v>
       </c>
-      <c r="H68" s="118"/>
-      <c r="I68" s="119"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="182">
+      <c r="H68" s="114"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="178">
         <v>0</v>
       </c>
-      <c r="L68" s="182">
+      <c r="L68" s="178">
         <v>100</v>
       </c>
-      <c r="M68" s="189"/>
-      <c r="N68" s="182">
+      <c r="M68" s="185"/>
+      <c r="N68" s="178">
         <v>0</v>
       </c>
-      <c r="O68" s="281">
-        <f t="shared" ref="O68:O79" si="14">V68</f>
+      <c r="O68" s="277">
+        <f t="shared" ref="O68:O79" si="15">V68</f>
         <v>800</v>
       </c>
-      <c r="P68" s="344">
-        <f t="shared" ref="P68:P79" si="15">O68</f>
+      <c r="P68" s="340">
+        <f t="shared" ref="P68:P79" si="16">O68</f>
         <v>800</v>
       </c>
-      <c r="Q68" s="123"/>
-      <c r="R68" s="118"/>
-      <c r="S68" s="190"/>
-      <c r="T68" s="191"/>
-      <c r="U68" s="190"/>
-      <c r="V68" s="273">
+      <c r="Q68" s="119"/>
+      <c r="R68" s="114"/>
+      <c r="S68" s="186"/>
+      <c r="T68" s="187"/>
+      <c r="U68" s="186"/>
+      <c r="V68" s="269">
         <v>800</v>
       </c>
-      <c r="W68" s="247">
+      <c r="W68" s="243">
         <v>1</v>
       </c>
-      <c r="X68" s="268">
+      <c r="X68" s="264">
         <v>12</v>
       </c>
-      <c r="Y68" s="251">
-        <f>V68*W68*X68</f>
+      <c r="Y68" s="247">
+        <f t="shared" si="14"/>
         <v>9600</v>
       </c>
-      <c r="Z68" s="363">
+      <c r="Z68" s="359">
         <v>800</v>
       </c>
-      <c r="AA68" s="97"/>
-      <c r="AB68" s="368">
-        <f t="shared" ref="AB68" si="16">Z68*W68*X68</f>
+      <c r="AA68" s="93"/>
+      <c r="AB68" s="364">
+        <f t="shared" ref="AB68" si="17">Z68*W68*X68</f>
         <v>9600</v>
       </c>
     </row>
-    <row r="69" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="62"/>
-      <c r="D69" s="224" t="s">
+    <row r="69" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="58"/>
+      <c r="D69" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="225" t="s">
+      <c r="E69" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="90"/>
-      <c r="G69" s="241">
+      <c r="F69" s="86"/>
+      <c r="G69" s="237">
         <v>100</v>
       </c>
-      <c r="H69" s="118"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="182">
+      <c r="H69" s="114"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="178">
         <v>0</v>
       </c>
-      <c r="L69" s="182">
+      <c r="L69" s="178">
         <v>100</v>
       </c>
-      <c r="M69" s="189"/>
-      <c r="N69" s="182">
+      <c r="M69" s="185"/>
+      <c r="N69" s="178">
         <v>0</v>
       </c>
-      <c r="O69" s="281">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="P69" s="344">
+      <c r="O69" s="277">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="118"/>
-      <c r="S69" s="190"/>
-      <c r="T69" s="191"/>
-      <c r="U69" s="190"/>
-      <c r="V69" s="273">
+      <c r="P69" s="340">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="W69" s="247">
+      <c r="Q69" s="119"/>
+      <c r="R69" s="114"/>
+      <c r="S69" s="186"/>
+      <c r="T69" s="187"/>
+      <c r="U69" s="186"/>
+      <c r="V69" s="269">
+        <v>100</v>
+      </c>
+      <c r="W69" s="243">
         <v>1</v>
       </c>
-      <c r="X69" s="268">
+      <c r="X69" s="264">
         <v>12</v>
       </c>
-      <c r="Y69" s="251">
-        <f>V69*W69*X69</f>
+      <c r="Y69" s="247">
+        <f t="shared" si="14"/>
         <v>1200</v>
       </c>
-      <c r="Z69" s="363">
+      <c r="Z69" s="359">
         <v>100</v>
       </c>
-      <c r="AA69" s="97"/>
-      <c r="AB69" s="368">
+      <c r="AA69" s="93"/>
+      <c r="AB69" s="364">
         <f>Z69*W69*X69</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="70" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="62"/>
-      <c r="D70" s="224" t="s">
+    <row r="70" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="58"/>
+      <c r="D70" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="225" t="s">
+      <c r="E70" s="221" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="90"/>
-      <c r="G70" s="241">
+      <c r="F70" s="86"/>
+      <c r="G70" s="237">
         <v>200</v>
       </c>
-      <c r="H70" s="118"/>
-      <c r="I70" s="119"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="182">
+      <c r="H70" s="114"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="178">
         <v>0</v>
       </c>
-      <c r="L70" s="182">
+      <c r="L70" s="178">
         <v>100</v>
       </c>
-      <c r="M70" s="189"/>
-      <c r="N70" s="182">
+      <c r="M70" s="185"/>
+      <c r="N70" s="178">
         <v>0</v>
       </c>
-      <c r="O70" s="281">
-        <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="P70" s="344">
+      <c r="O70" s="277">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="Q70" s="123"/>
-      <c r="R70" s="118"/>
-      <c r="S70" s="190"/>
-      <c r="T70" s="191"/>
-      <c r="U70" s="190"/>
-      <c r="V70" s="273">
+      <c r="P70" s="340">
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
-      <c r="W70" s="247">
+      <c r="Q70" s="119"/>
+      <c r="R70" s="114"/>
+      <c r="S70" s="186"/>
+      <c r="T70" s="187"/>
+      <c r="U70" s="186"/>
+      <c r="V70" s="269">
+        <v>200</v>
+      </c>
+      <c r="W70" s="243">
         <v>1</v>
       </c>
-      <c r="X70" s="268">
+      <c r="X70" s="264">
         <v>12</v>
       </c>
-      <c r="Y70" s="251">
-        <f>V70*W70*X70</f>
+      <c r="Y70" s="247">
+        <f t="shared" si="14"/>
         <v>2400</v>
       </c>
-      <c r="Z70" s="363">
+      <c r="Z70" s="359">
         <v>200</v>
       </c>
-      <c r="AA70" s="97"/>
-      <c r="AB70" s="368">
+      <c r="AA70" s="93"/>
+      <c r="AB70" s="364">
         <f>Z70*W70*X70</f>
         <v>2400</v>
       </c>
     </row>
-    <row r="71" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="62"/>
-      <c r="D71" s="224" t="s">
+    <row r="71" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="58"/>
+      <c r="D71" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="225" t="s">
+      <c r="E71" s="221" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="90"/>
-      <c r="G71" s="241">
+      <c r="F71" s="86"/>
+      <c r="G71" s="237">
         <v>300</v>
       </c>
-      <c r="H71" s="118"/>
-      <c r="I71" s="119"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="182">
+      <c r="H71" s="114"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="178">
         <v>0</v>
       </c>
-      <c r="L71" s="182">
+      <c r="L71" s="178">
         <v>100</v>
       </c>
-      <c r="M71" s="189"/>
-      <c r="N71" s="182">
+      <c r="M71" s="185"/>
+      <c r="N71" s="178">
         <v>0</v>
       </c>
-      <c r="O71" s="281">
-        <f t="shared" si="14"/>
-        <v>300</v>
-      </c>
-      <c r="P71" s="344">
+      <c r="O71" s="277">
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="Q71" s="123"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="190"/>
-      <c r="T71" s="191"/>
-      <c r="U71" s="190"/>
-      <c r="V71" s="273">
+      <c r="P71" s="340">
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
-      <c r="W71" s="247">
+      <c r="Q71" s="119"/>
+      <c r="R71" s="114"/>
+      <c r="S71" s="186"/>
+      <c r="T71" s="187"/>
+      <c r="U71" s="186"/>
+      <c r="V71" s="269">
+        <v>300</v>
+      </c>
+      <c r="W71" s="243">
         <v>1</v>
       </c>
-      <c r="X71" s="268">
+      <c r="X71" s="264">
         <v>12</v>
       </c>
-      <c r="Y71" s="251">
-        <f>V71*W71*X71</f>
+      <c r="Y71" s="247">
+        <f t="shared" si="14"/>
         <v>3600</v>
       </c>
-      <c r="Z71" s="363">
+      <c r="Z71" s="359">
         <v>300</v>
       </c>
-      <c r="AA71" s="97"/>
-      <c r="AB71" s="368">
+      <c r="AA71" s="93"/>
+      <c r="AB71" s="364">
         <f>Z71*W71*X71</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="72" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="62"/>
-      <c r="D72" s="224" t="s">
+    <row r="72" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="58"/>
+      <c r="D72" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="225" t="s">
+      <c r="E72" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="90"/>
-      <c r="G72" s="241">
+      <c r="F72" s="86"/>
+      <c r="G72" s="237">
         <v>100</v>
       </c>
-      <c r="H72" s="118"/>
-      <c r="I72" s="119"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="182">
+      <c r="H72" s="114"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="178">
         <v>0</v>
       </c>
-      <c r="L72" s="182">
+      <c r="L72" s="178">
         <v>100</v>
       </c>
-      <c r="M72" s="189"/>
-      <c r="N72" s="182">
+      <c r="M72" s="185"/>
+      <c r="N72" s="178">
         <v>0</v>
       </c>
-      <c r="O72" s="281">
+      <c r="O72" s="277">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="340">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="114"/>
+      <c r="S72" s="186"/>
+      <c r="T72" s="187"/>
+      <c r="U72" s="186"/>
+      <c r="V72" s="269">
+        <v>0</v>
+      </c>
+      <c r="W72" s="243">
+        <v>1</v>
+      </c>
+      <c r="X72" s="264">
+        <v>12</v>
+      </c>
+      <c r="Y72" s="247">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P72" s="344">
+      <c r="Z72" s="359">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="93"/>
+      <c r="AB72" s="364">
+        <f>Z72*W72*X72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="58"/>
+      <c r="D73" s="220" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="221" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="86"/>
+      <c r="G73" s="235">
+        <v>0.06</v>
+      </c>
+      <c r="H73" s="114"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="87"/>
+      <c r="K73" s="178">
+        <v>0</v>
+      </c>
+      <c r="L73" s="178">
+        <v>100</v>
+      </c>
+      <c r="M73" s="185"/>
+      <c r="N73" s="178">
+        <v>0</v>
+      </c>
+      <c r="O73" s="277">
+        <f t="shared" si="15"/>
+        <v>9550</v>
+      </c>
+      <c r="P73" s="340">
+        <f t="shared" si="16"/>
+        <v>9550</v>
+      </c>
+      <c r="Q73" s="119"/>
+      <c r="R73" s="114"/>
+      <c r="S73" s="186"/>
+      <c r="T73" s="187"/>
+      <c r="U73" s="186"/>
+      <c r="V73" s="266">
+        <f>$K$9/X73*X73/12</f>
+        <v>9550</v>
+      </c>
+      <c r="W73" s="270">
+        <v>0.06</v>
+      </c>
+      <c r="X73" s="243">
+        <v>24</v>
+      </c>
+      <c r="Y73" s="247">
+        <f>V73*W73</f>
+        <v>573</v>
+      </c>
+      <c r="Z73" s="360">
+        <v>0.05</v>
+      </c>
+      <c r="AA73" s="93"/>
+      <c r="AB73" s="364">
+        <f>V73*Z73</f>
+        <v>477.5</v>
+      </c>
+    </row>
+    <row r="74" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="58"/>
+      <c r="D74" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="221" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="86"/>
+      <c r="G74" s="235">
+        <v>0.06</v>
+      </c>
+      <c r="H74" s="114"/>
+      <c r="I74" s="115"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="178">
+        <v>0</v>
+      </c>
+      <c r="L74" s="178">
+        <v>100</v>
+      </c>
+      <c r="M74" s="185"/>
+      <c r="N74" s="178">
+        <v>0</v>
+      </c>
+      <c r="O74" s="277">
+        <f t="shared" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="P74" s="340">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="114"/>
+      <c r="S74" s="186"/>
+      <c r="T74" s="187"/>
+      <c r="U74" s="186"/>
+      <c r="V74" s="271">
+        <v>3000</v>
+      </c>
+      <c r="W74" s="270">
+        <v>1</v>
+      </c>
+      <c r="X74" s="264">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="247">
+        <f>V74*W74*X74</f>
+        <v>3000</v>
+      </c>
+      <c r="Z74" s="360">
+        <v>0.9</v>
+      </c>
+      <c r="AA74" s="93"/>
+      <c r="AB74" s="364">
+        <f>V74*Z74</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="75" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="58"/>
+      <c r="D75" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="86"/>
+      <c r="G75" s="234">
+        <f>V75</f>
+        <v>600</v>
+      </c>
+      <c r="H75" s="114"/>
+      <c r="I75" s="115"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="178">
+        <v>0</v>
+      </c>
+      <c r="L75" s="178">
+        <v>100</v>
+      </c>
+      <c r="M75" s="185"/>
+      <c r="N75" s="178">
+        <v>0</v>
+      </c>
+      <c r="O75" s="277">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="P75" s="340">
+        <f t="shared" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="Q75" s="119"/>
+      <c r="R75" s="114"/>
+      <c r="S75" s="186"/>
+      <c r="T75" s="187"/>
+      <c r="U75" s="186"/>
+      <c r="V75" s="271">
+        <v>600</v>
+      </c>
+      <c r="W75" s="243">
+        <v>1</v>
+      </c>
+      <c r="X75" s="264">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="247">
+        <f>V75*W75*X75</f>
+        <v>600</v>
+      </c>
+      <c r="Z75" s="361">
+        <v>600</v>
+      </c>
+      <c r="AA75" s="93"/>
+      <c r="AB75" s="364">
+        <f>Z75*W75*X75</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="58"/>
+      <c r="D76" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="234">
+        <f>V76</f>
+        <v>3000</v>
+      </c>
+      <c r="H76" s="114"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="178">
+        <v>0</v>
+      </c>
+      <c r="L76" s="178">
+        <v>100</v>
+      </c>
+      <c r="M76" s="185"/>
+      <c r="N76" s="178">
+        <v>0</v>
+      </c>
+      <c r="O76" s="277">
+        <f t="shared" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="P76" s="340">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="Q76" s="119"/>
+      <c r="R76" s="114"/>
+      <c r="S76" s="186"/>
+      <c r="T76" s="187"/>
+      <c r="U76" s="186"/>
+      <c r="V76" s="271">
+        <v>3000</v>
+      </c>
+      <c r="W76" s="243">
+        <v>1</v>
+      </c>
+      <c r="X76" s="264">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="247">
+        <f>V76*W76*X76</f>
+        <v>3000</v>
+      </c>
+      <c r="Z76" s="361">
+        <v>3000</v>
+      </c>
+      <c r="AA76" s="93"/>
+      <c r="AB76" s="364">
+        <f>Z76*W76*X76</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="58"/>
+      <c r="D77" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="86"/>
+      <c r="G77" s="234">
+        <f>V77</f>
+        <v>3000</v>
+      </c>
+      <c r="H77" s="114"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="178">
+        <v>0</v>
+      </c>
+      <c r="L77" s="178">
+        <v>100</v>
+      </c>
+      <c r="M77" s="185"/>
+      <c r="N77" s="178">
+        <v>0</v>
+      </c>
+      <c r="O77" s="277">
+        <f t="shared" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="P77" s="340">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="Q77" s="119"/>
+      <c r="R77" s="114"/>
+      <c r="S77" s="186"/>
+      <c r="T77" s="187"/>
+      <c r="U77" s="186"/>
+      <c r="V77" s="271">
+        <v>3000</v>
+      </c>
+      <c r="W77" s="243">
+        <v>1</v>
+      </c>
+      <c r="X77" s="264">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="247">
+        <f>V77*W77*X77</f>
+        <v>3000</v>
+      </c>
+      <c r="Z77" s="361">
+        <v>3000</v>
+      </c>
+      <c r="AA77" s="93"/>
+      <c r="AB77" s="364">
+        <f>Z77*W77*X77</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="78" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="58"/>
+      <c r="D78" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="221" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="86"/>
+      <c r="G78" s="234">
+        <f>V78</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="114"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="178">
+        <v>0</v>
+      </c>
+      <c r="L78" s="178">
+        <v>100</v>
+      </c>
+      <c r="M78" s="185"/>
+      <c r="N78" s="178">
+        <v>0</v>
+      </c>
+      <c r="O78" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="123"/>
-      <c r="R72" s="118"/>
-      <c r="S72" s="190"/>
-      <c r="T72" s="191"/>
-      <c r="U72" s="190"/>
-      <c r="V72" s="273">
+      <c r="P78" s="340">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W72" s="247">
+      <c r="Q78" s="119"/>
+      <c r="R78" s="114"/>
+      <c r="S78" s="186"/>
+      <c r="T78" s="187"/>
+      <c r="U78" s="186"/>
+      <c r="V78" s="271">
+        <v>0</v>
+      </c>
+      <c r="W78" s="243">
         <v>1</v>
       </c>
-      <c r="X72" s="268">
-        <v>12</v>
-      </c>
-      <c r="Y72" s="251">
-        <f>V72*W72*X72</f>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="363">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="97"/>
-      <c r="AB72" s="368">
-        <f>Z72*W72*X72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="62"/>
-      <c r="D73" s="224" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="225" t="s">
-        <v>141</v>
-      </c>
-      <c r="F73" s="90"/>
-      <c r="G73" s="239">
-        <v>0.06</v>
-      </c>
-      <c r="H73" s="118"/>
-      <c r="I73" s="119"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="182">
-        <v>0</v>
-      </c>
-      <c r="L73" s="182">
-        <v>100</v>
-      </c>
-      <c r="M73" s="189"/>
-      <c r="N73" s="182">
-        <v>0</v>
-      </c>
-      <c r="O73" s="281">
-        <f t="shared" si="14"/>
-        <v>9550</v>
-      </c>
-      <c r="P73" s="344">
-        <f t="shared" si="15"/>
-        <v>9550</v>
-      </c>
-      <c r="Q73" s="123"/>
-      <c r="R73" s="118"/>
-      <c r="S73" s="190"/>
-      <c r="T73" s="191"/>
-      <c r="U73" s="190"/>
-      <c r="V73" s="270">
-        <f>$K$9/X73*X73/12</f>
-        <v>9550</v>
-      </c>
-      <c r="W73" s="274">
-        <v>0.06</v>
-      </c>
-      <c r="X73" s="247">
-        <v>24</v>
-      </c>
-      <c r="Y73" s="251">
-        <f>V73*W73</f>
-        <v>573</v>
-      </c>
-      <c r="Z73" s="364">
-        <v>0.05</v>
-      </c>
-      <c r="AA73" s="97"/>
-      <c r="AB73" s="368">
-        <f>V73*Z73</f>
-        <v>477.5</v>
-      </c>
-    </row>
-    <row r="74" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="62"/>
-      <c r="D74" s="224" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="225" t="s">
-        <v>137</v>
-      </c>
-      <c r="F74" s="90"/>
-      <c r="G74" s="239">
-        <v>0.06</v>
-      </c>
-      <c r="H74" s="118"/>
-      <c r="I74" s="119"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="182">
-        <v>0</v>
-      </c>
-      <c r="L74" s="182">
-        <v>100</v>
-      </c>
-      <c r="M74" s="189"/>
-      <c r="N74" s="182">
-        <v>0</v>
-      </c>
-      <c r="O74" s="281">
-        <f t="shared" si="14"/>
-        <v>3000</v>
-      </c>
-      <c r="P74" s="344">
-        <f t="shared" si="15"/>
-        <v>3000</v>
-      </c>
-      <c r="Q74" s="123"/>
-      <c r="R74" s="118"/>
-      <c r="S74" s="190"/>
-      <c r="T74" s="191"/>
-      <c r="U74" s="190"/>
-      <c r="V74" s="275">
-        <v>3000</v>
-      </c>
-      <c r="W74" s="274">
+      <c r="X78" s="264">
         <v>1</v>
       </c>
-      <c r="X74" s="268">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="251">
-        <f>V74*W74*X74</f>
-        <v>3000</v>
-      </c>
-      <c r="Z74" s="364">
-        <v>0.9</v>
-      </c>
-      <c r="AA74" s="97"/>
-      <c r="AB74" s="368">
-        <f>V74*Z74</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="75" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="62"/>
-      <c r="D75" s="224" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="225" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="90"/>
-      <c r="G75" s="238">
-        <f>V75</f>
-        <v>600</v>
-      </c>
-      <c r="H75" s="118"/>
-      <c r="I75" s="119"/>
-      <c r="J75" s="91"/>
-      <c r="K75" s="182">
-        <v>0</v>
-      </c>
-      <c r="L75" s="182">
-        <v>100</v>
-      </c>
-      <c r="M75" s="189"/>
-      <c r="N75" s="182">
-        <v>0</v>
-      </c>
-      <c r="O75" s="281">
-        <f t="shared" si="14"/>
-        <v>600</v>
-      </c>
-      <c r="P75" s="344">
-        <f t="shared" si="15"/>
-        <v>600</v>
-      </c>
-      <c r="Q75" s="123"/>
-      <c r="R75" s="118"/>
-      <c r="S75" s="190"/>
-      <c r="T75" s="191"/>
-      <c r="U75" s="190"/>
-      <c r="V75" s="275">
-        <v>600</v>
-      </c>
-      <c r="W75" s="247">
-        <v>1</v>
-      </c>
-      <c r="X75" s="268">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="251">
-        <f>V75*W75*X75</f>
-        <v>600</v>
-      </c>
-      <c r="Z75" s="365">
-        <v>600</v>
-      </c>
-      <c r="AA75" s="97"/>
-      <c r="AB75" s="368">
-        <f>Z75*W75*X75</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="76" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="62"/>
-      <c r="D76" s="224" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="225" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="238">
-        <f>V76</f>
-        <v>3000</v>
-      </c>
-      <c r="H76" s="118"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="182">
-        <v>0</v>
-      </c>
-      <c r="L76" s="182">
-        <v>100</v>
-      </c>
-      <c r="M76" s="189"/>
-      <c r="N76" s="182">
-        <v>0</v>
-      </c>
-      <c r="O76" s="281">
-        <f t="shared" si="14"/>
-        <v>3000</v>
-      </c>
-      <c r="P76" s="344">
-        <f t="shared" si="15"/>
-        <v>3000</v>
-      </c>
-      <c r="Q76" s="123"/>
-      <c r="R76" s="118"/>
-      <c r="S76" s="190"/>
-      <c r="T76" s="191"/>
-      <c r="U76" s="190"/>
-      <c r="V76" s="275">
-        <v>3000</v>
-      </c>
-      <c r="W76" s="247">
-        <v>1</v>
-      </c>
-      <c r="X76" s="268">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="251">
-        <f>V76*W76*X76</f>
-        <v>3000</v>
-      </c>
-      <c r="Z76" s="365">
-        <v>3000</v>
-      </c>
-      <c r="AA76" s="97"/>
-      <c r="AB76" s="368">
-        <f>Z76*W76*X76</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="77" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="62"/>
-      <c r="D77" s="224" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="225" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="90"/>
-      <c r="G77" s="238">
-        <f>V77</f>
-        <v>3000</v>
-      </c>
-      <c r="H77" s="118"/>
-      <c r="I77" s="119"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="182">
-        <v>0</v>
-      </c>
-      <c r="L77" s="182">
-        <v>100</v>
-      </c>
-      <c r="M77" s="189"/>
-      <c r="N77" s="182">
-        <v>0</v>
-      </c>
-      <c r="O77" s="281">
-        <f t="shared" si="14"/>
-        <v>3000</v>
-      </c>
-      <c r="P77" s="344">
-        <f t="shared" si="15"/>
-        <v>3000</v>
-      </c>
-      <c r="Q77" s="123"/>
-      <c r="R77" s="118"/>
-      <c r="S77" s="190"/>
-      <c r="T77" s="191"/>
-      <c r="U77" s="190"/>
-      <c r="V77" s="275">
-        <v>3000</v>
-      </c>
-      <c r="W77" s="247">
-        <v>1</v>
-      </c>
-      <c r="X77" s="268">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="251">
-        <f>V77*W77*X77</f>
-        <v>3000</v>
-      </c>
-      <c r="Z77" s="365">
-        <v>3000</v>
-      </c>
-      <c r="AA77" s="97"/>
-      <c r="AB77" s="368">
-        <f>Z77*W77*X77</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="78" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="62"/>
-      <c r="D78" s="224" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="225" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="90"/>
-      <c r="G78" s="238">
-        <f>V78</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="118"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="182">
-        <v>0</v>
-      </c>
-      <c r="L78" s="182">
-        <v>100</v>
-      </c>
-      <c r="M78" s="189"/>
-      <c r="N78" s="182">
-        <v>0</v>
-      </c>
-      <c r="O78" s="281">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="344">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="123"/>
-      <c r="R78" s="118"/>
-      <c r="S78" s="190"/>
-      <c r="T78" s="191"/>
-      <c r="U78" s="190"/>
-      <c r="V78" s="275">
-        <v>0</v>
-      </c>
-      <c r="W78" s="247">
-        <v>1</v>
-      </c>
-      <c r="X78" s="268">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="251">
+      <c r="Y78" s="247">
         <f>V78*W78*X78</f>
         <v>0</v>
       </c>
-      <c r="Z78" s="365">
+      <c r="Z78" s="361">
         <v>0</v>
       </c>
-      <c r="AA78" s="97"/>
-      <c r="AB78" s="368">
+      <c r="AA78" s="93"/>
+      <c r="AB78" s="364">
         <f>Z78*W78*X78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="62"/>
-      <c r="D79" s="224" t="s">
+    <row r="79" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="58"/>
+      <c r="D79" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="225" t="s">
+      <c r="E79" s="221" t="s">
         <v>140</v>
       </c>
-      <c r="F79" s="90"/>
-      <c r="G79" s="238">
+      <c r="F79" s="86"/>
+      <c r="G79" s="234">
         <f ca="1">Y79</f>
-        <v>13233.557692307697</v>
-      </c>
-      <c r="H79" s="118"/>
-      <c r="I79" s="119"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="182">
+        <v>13233.557692307693</v>
+      </c>
+      <c r="H79" s="114"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="87"/>
+      <c r="K79" s="178">
         <v>0</v>
       </c>
-      <c r="L79" s="182">
+      <c r="L79" s="178">
         <v>100</v>
       </c>
-      <c r="M79" s="189"/>
-      <c r="N79" s="182">
+      <c r="M79" s="185"/>
+      <c r="N79" s="178">
         <v>0</v>
       </c>
-      <c r="O79" s="281">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="P79" s="344">
+      <c r="O79" s="277">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="Q79" s="123"/>
-      <c r="R79" s="118"/>
-      <c r="S79" s="190"/>
-      <c r="T79" s="191"/>
-      <c r="U79" s="190"/>
-      <c r="V79" s="277">
+      <c r="P79" s="340">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Q79" s="119"/>
+      <c r="R79" s="114"/>
+      <c r="S79" s="186"/>
+      <c r="T79" s="187"/>
+      <c r="U79" s="186"/>
+      <c r="V79" s="273">
         <f>W35+W36</f>
         <v>3</v>
       </c>
-      <c r="W79" s="300">
+      <c r="W79" s="296">
         <f>V79/X79</f>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="X79" s="276">
+      <c r="X79" s="272">
         <v>52</v>
       </c>
-      <c r="Y79" s="251">
+      <c r="Y79" s="247">
         <f ca="1">$K$12*W79</f>
         <v>13233.557692307693</v>
       </c>
-      <c r="Z79" s="366">
+      <c r="Z79" s="362">
         <f>X79-Z37</f>
         <v>4</v>
       </c>
-      <c r="AA79" s="97"/>
-      <c r="AB79" s="368">
+      <c r="AA79" s="93"/>
+      <c r="AB79" s="364">
         <f ca="1">AB35+AB36</f>
         <v>17644.74358974359</v>
       </c>
     </row>
-    <row r="80" spans="3:28" s="60" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="62"/>
-      <c r="D80" s="227" t="s">
+    <row r="80" spans="3:28" s="56" customFormat="1" ht="19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="58"/>
+      <c r="D80" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="E80" s="227"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="119"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="194"/>
-      <c r="L80" s="192"/>
-      <c r="M80" s="189"/>
-      <c r="N80" s="194"/>
-      <c r="O80" s="194"/>
-      <c r="P80" s="192"/>
-      <c r="Q80" s="123"/>
-      <c r="R80" s="118"/>
-      <c r="S80" s="190"/>
-      <c r="T80" s="191"/>
-      <c r="U80" s="190"/>
-      <c r="V80" s="193"/>
-      <c r="W80" s="193"/>
-      <c r="X80" s="193"/>
-      <c r="Y80" s="126"/>
-      <c r="Z80" s="193"/>
-      <c r="AA80" s="97"/>
-      <c r="AB80" s="126"/>
-    </row>
-    <row r="81" spans="1:65" s="60" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="228"/>
-      <c r="D81" s="228"/>
-      <c r="E81" s="228"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="117"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="181"/>
-      <c r="L81" s="181"/>
-      <c r="M81" s="196"/>
-      <c r="N81" s="182"/>
-      <c r="O81" s="181"/>
-      <c r="P81" s="183"/>
-      <c r="Q81" s="123"/>
-      <c r="R81" s="184"/>
-      <c r="S81" s="185"/>
-      <c r="T81" s="186"/>
-      <c r="U81" s="185"/>
-      <c r="V81" s="188"/>
-      <c r="W81" s="187"/>
-      <c r="X81" s="187"/>
-      <c r="Y81" s="125"/>
-      <c r="Z81" s="187"/>
-      <c r="AA81" s="97"/>
-      <c r="AB81" s="125"/>
-    </row>
-    <row r="82" spans="1:65" s="79" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C82" s="80"/>
-      <c r="D82" s="229"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="213"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="213">
+      <c r="E80" s="223"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="87"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="188"/>
+      <c r="M80" s="185"/>
+      <c r="N80" s="190"/>
+      <c r="O80" s="190"/>
+      <c r="P80" s="188"/>
+      <c r="Q80" s="119"/>
+      <c r="R80" s="114"/>
+      <c r="S80" s="186"/>
+      <c r="T80" s="187"/>
+      <c r="U80" s="186"/>
+      <c r="V80" s="189"/>
+      <c r="W80" s="189"/>
+      <c r="X80" s="189"/>
+      <c r="Y80" s="122"/>
+      <c r="Z80" s="189"/>
+      <c r="AA80" s="93"/>
+      <c r="AB80" s="122"/>
+    </row>
+    <row r="81" spans="1:65" s="56" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="224"/>
+      <c r="D81" s="224"/>
+      <c r="E81" s="224"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="177"/>
+      <c r="L81" s="177"/>
+      <c r="M81" s="192"/>
+      <c r="N81" s="178"/>
+      <c r="O81" s="177"/>
+      <c r="P81" s="179"/>
+      <c r="Q81" s="119"/>
+      <c r="R81" s="180"/>
+      <c r="S81" s="181"/>
+      <c r="T81" s="182"/>
+      <c r="U81" s="181"/>
+      <c r="V81" s="184"/>
+      <c r="W81" s="183"/>
+      <c r="X81" s="183"/>
+      <c r="Y81" s="121"/>
+      <c r="Z81" s="183"/>
+      <c r="AA81" s="93"/>
+      <c r="AB81" s="121"/>
+    </row>
+    <row r="82" spans="1:65" s="75" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C82" s="76"/>
+      <c r="D82" s="225"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="209">
         <f>SUM(I63:I65)</f>
         <v>33276</v>
       </c>
-      <c r="J82" s="81"/>
-      <c r="K82" s="195"/>
-      <c r="L82" s="195"/>
-      <c r="M82" s="196"/>
-      <c r="N82" s="195"/>
-      <c r="O82" s="195"/>
-      <c r="P82" s="195"/>
-      <c r="Q82" s="123"/>
-      <c r="R82" s="123"/>
-      <c r="S82" s="197"/>
-      <c r="T82" s="198"/>
-      <c r="U82" s="197"/>
-      <c r="V82" s="213">
+      <c r="J82" s="77"/>
+      <c r="K82" s="191"/>
+      <c r="L82" s="191"/>
+      <c r="M82" s="192"/>
+      <c r="N82" s="191"/>
+      <c r="O82" s="191"/>
+      <c r="P82" s="191"/>
+      <c r="Q82" s="119"/>
+      <c r="R82" s="119"/>
+      <c r="S82" s="193"/>
+      <c r="T82" s="194"/>
+      <c r="U82" s="193"/>
+      <c r="V82" s="209">
         <f>SUM(V63:V65)</f>
         <v>11573</v>
       </c>
-      <c r="W82" s="200"/>
-      <c r="X82" s="199"/>
-      <c r="Y82" s="213">
+      <c r="W82" s="196"/>
+      <c r="X82" s="195"/>
+      <c r="Y82" s="209">
         <f ca="1">SUM(Y67:Y79)</f>
         <v>40206.557692307695</v>
       </c>
-      <c r="Z82" s="199"/>
-      <c r="AA82" s="97"/>
-      <c r="AB82" s="213">
+      <c r="Z82" s="195"/>
+      <c r="AA82" s="93"/>
+      <c r="AB82" s="209">
         <f ca="1">SUM(AB67:AB79)</f>
         <v>44222.243589743593</v>
       </c>
     </row>
-    <row r="83" spans="1:65" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="97"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="132"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="195"/>
-      <c r="L83" s="195"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="195"/>
-      <c r="O83" s="195"/>
-      <c r="P83" s="195"/>
-      <c r="Q83" s="123"/>
-      <c r="R83" s="123"/>
-      <c r="S83" s="197"/>
-      <c r="T83" s="97"/>
-      <c r="U83" s="197"/>
-      <c r="V83" s="200"/>
-      <c r="W83" s="200"/>
-      <c r="X83" s="199"/>
-      <c r="Y83" s="127"/>
-      <c r="Z83" s="199"/>
-      <c r="AA83" s="97"/>
-      <c r="AB83" s="127"/>
-    </row>
-    <row r="84" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="98"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="69"/>
-      <c r="R84" s="85"/>
-      <c r="S84" s="87"/>
-      <c r="U84" s="87"/>
-      <c r="V84" s="73"/>
-      <c r="W84" s="88"/>
-      <c r="X84" s="89"/>
-      <c r="Y84" s="128"/>
-      <c r="Z84" s="89"/>
-      <c r="AA84" s="66"/>
-      <c r="AB84" s="128"/>
-    </row>
-    <row r="85" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="98"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="133"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="69"/>
-      <c r="R85" s="85"/>
-      <c r="S85" s="87"/>
-      <c r="U85" s="87"/>
-      <c r="V85" s="73"/>
-      <c r="W85" s="88"/>
-      <c r="X85" s="89"/>
-      <c r="Y85" s="128"/>
-      <c r="Z85" s="89"/>
-      <c r="AA85" s="66"/>
-      <c r="AB85" s="128"/>
-    </row>
-    <row r="86" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="302"/>
-      <c r="B86" s="302"/>
-      <c r="C86" s="302"/>
-      <c r="D86" s="302"/>
-      <c r="E86" s="302"/>
-      <c r="F86" s="302"/>
-      <c r="G86" s="302"/>
-      <c r="H86" s="302"/>
-      <c r="I86" s="302"/>
-      <c r="J86" s="302"/>
-      <c r="K86" s="302"/>
-      <c r="L86" s="302"/>
-      <c r="M86" s="302"/>
-      <c r="N86" s="302"/>
-      <c r="O86" s="302"/>
-      <c r="P86" s="302"/>
-      <c r="Q86" s="302"/>
-      <c r="R86" s="302"/>
-      <c r="S86" s="302"/>
-      <c r="T86" s="302"/>
-      <c r="U86" s="302"/>
-      <c r="V86" s="302"/>
-      <c r="W86" s="302"/>
-      <c r="X86" s="302"/>
-      <c r="Y86" s="302"/>
-      <c r="Z86" s="302"/>
-      <c r="AA86" s="302"/>
-      <c r="AB86" s="302"/>
-      <c r="AC86" s="302"/>
-      <c r="AD86" s="302"/>
-      <c r="AE86" s="302"/>
-      <c r="AN86" s="98"/>
-      <c r="AO86" s="114"/>
-      <c r="AP86" s="133"/>
-      <c r="AQ86" s="83"/>
-      <c r="AR86" s="84"/>
-      <c r="AS86" s="85"/>
-      <c r="AT86" s="86"/>
-      <c r="AU86" s="85"/>
-      <c r="AV86" s="61"/>
-      <c r="AW86" s="61"/>
-      <c r="AX86" s="85"/>
-      <c r="AY86" s="61"/>
-      <c r="AZ86" s="61"/>
-      <c r="BA86" s="61"/>
-      <c r="BB86" s="85"/>
-      <c r="BC86" s="85"/>
-      <c r="BD86" s="87"/>
-      <c r="BF86" s="87"/>
-      <c r="BG86" s="73"/>
-      <c r="BH86" s="88"/>
-      <c r="BI86" s="89"/>
-      <c r="BJ86" s="128"/>
-      <c r="BK86" s="89"/>
-      <c r="BM86" s="128"/>
-    </row>
-    <row r="87" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="302"/>
-      <c r="B87" s="302"/>
-      <c r="C87" s="303"/>
-      <c r="D87" s="304"/>
-      <c r="E87" s="305"/>
-      <c r="F87" s="306"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="307"/>
-      <c r="L87" s="307"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="307"/>
-      <c r="O87" s="307"/>
-      <c r="P87" s="307"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="70"/>
-      <c r="S87" s="308"/>
-      <c r="T87" s="302"/>
-      <c r="U87" s="308"/>
-      <c r="V87" s="70"/>
-      <c r="W87" s="70"/>
-      <c r="X87" s="309"/>
-      <c r="Y87" s="310"/>
-      <c r="Z87" s="309"/>
-      <c r="AA87" s="302"/>
-      <c r="AB87" s="310"/>
-      <c r="AC87" s="302"/>
-      <c r="AD87" s="302"/>
-      <c r="AE87" s="302"/>
-    </row>
-    <row r="88" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="302"/>
-      <c r="B88" s="302"/>
-      <c r="C88" s="303"/>
-      <c r="D88" s="304"/>
-      <c r="E88" s="305"/>
-      <c r="F88" s="306"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="307"/>
-      <c r="L88" s="307"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="307"/>
-      <c r="O88" s="307"/>
-      <c r="P88" s="307"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="308"/>
-      <c r="T88" s="302"/>
-      <c r="U88" s="308"/>
-      <c r="V88" s="70"/>
-      <c r="W88" s="70"/>
-      <c r="X88" s="309"/>
-      <c r="Y88" s="310"/>
-      <c r="Z88" s="309"/>
-      <c r="AA88" s="302"/>
-      <c r="AB88" s="310"/>
-      <c r="AC88" s="302"/>
-      <c r="AD88" s="302"/>
-      <c r="AE88" s="302"/>
-    </row>
-    <row r="89" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="302"/>
-      <c r="B89" s="302"/>
-      <c r="C89" s="303"/>
-      <c r="D89" s="304"/>
-      <c r="E89" s="305"/>
-      <c r="F89" s="306"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="307"/>
-      <c r="L89" s="307"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="307"/>
-      <c r="O89" s="307"/>
-      <c r="P89" s="307"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="70"/>
-      <c r="S89" s="308"/>
-      <c r="T89" s="302"/>
-      <c r="U89" s="308"/>
-      <c r="V89" s="70"/>
-      <c r="W89" s="70"/>
-      <c r="X89" s="309"/>
-      <c r="Y89" s="310"/>
-      <c r="Z89" s="309"/>
-      <c r="AA89" s="302"/>
-      <c r="AB89" s="310"/>
-      <c r="AC89" s="302"/>
-      <c r="AD89" s="302"/>
-      <c r="AE89" s="302"/>
-    </row>
-    <row r="90" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="302"/>
-      <c r="B90" s="302"/>
-      <c r="C90" s="303"/>
-      <c r="D90" s="304"/>
-      <c r="E90" s="305"/>
-      <c r="F90" s="306"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="307"/>
-      <c r="L90" s="307"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="307"/>
-      <c r="O90" s="307"/>
-      <c r="P90" s="307"/>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="70"/>
-      <c r="S90" s="308"/>
-      <c r="T90" s="302"/>
-      <c r="U90" s="308"/>
-      <c r="V90" s="70"/>
-      <c r="W90" s="70"/>
-      <c r="X90" s="309"/>
-      <c r="Y90" s="310"/>
-      <c r="Z90" s="309"/>
-      <c r="AA90" s="302"/>
-      <c r="AB90" s="310"/>
-      <c r="AC90" s="302"/>
-      <c r="AD90" s="302"/>
-      <c r="AE90" s="302"/>
-    </row>
-    <row r="91" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="302"/>
-      <c r="B91" s="302"/>
-      <c r="C91" s="303"/>
-      <c r="D91" s="304"/>
-      <c r="E91" s="305"/>
-      <c r="F91" s="306"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="307"/>
-      <c r="L91" s="307"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="307"/>
-      <c r="O91" s="307"/>
-      <c r="P91" s="307"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="70"/>
-      <c r="S91" s="308"/>
-      <c r="T91" s="302"/>
-      <c r="U91" s="308"/>
-      <c r="V91" s="70"/>
-      <c r="W91" s="70"/>
-      <c r="X91" s="309"/>
-      <c r="Y91" s="310"/>
-      <c r="Z91" s="309"/>
-      <c r="AA91" s="302"/>
-      <c r="AB91" s="310"/>
-      <c r="AC91" s="302"/>
-      <c r="AD91" s="302"/>
-      <c r="AE91" s="302"/>
-    </row>
-    <row r="92" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="302"/>
-      <c r="B92" s="302"/>
-      <c r="C92" s="303"/>
-      <c r="D92" s="304"/>
-      <c r="E92" s="305"/>
-      <c r="F92" s="306"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="307"/>
-      <c r="L92" s="307"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="307"/>
-      <c r="O92" s="307"/>
-      <c r="P92" s="307"/>
-      <c r="Q92" s="70"/>
-      <c r="R92" s="70"/>
-      <c r="S92" s="308"/>
-      <c r="T92" s="302"/>
-      <c r="U92" s="308"/>
-      <c r="V92" s="70"/>
-      <c r="W92" s="70"/>
-      <c r="X92" s="309"/>
-      <c r="Y92" s="310"/>
-      <c r="Z92" s="309"/>
-      <c r="AA92" s="302"/>
-      <c r="AB92" s="310"/>
-      <c r="AC92" s="302"/>
-      <c r="AD92" s="302"/>
-      <c r="AE92" s="302"/>
-    </row>
-    <row r="93" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="302"/>
-      <c r="B93" s="302"/>
-      <c r="C93" s="303"/>
-      <c r="D93" s="304"/>
-      <c r="E93" s="305"/>
-      <c r="F93" s="306"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="307"/>
-      <c r="L93" s="307"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="307"/>
-      <c r="O93" s="307"/>
-      <c r="P93" s="307"/>
-      <c r="Q93" s="70"/>
-      <c r="R93" s="70"/>
-      <c r="S93" s="308"/>
-      <c r="T93" s="302"/>
-      <c r="U93" s="308"/>
-      <c r="V93" s="70"/>
-      <c r="W93" s="70"/>
-      <c r="X93" s="309"/>
-      <c r="Y93" s="310"/>
-      <c r="Z93" s="309"/>
-      <c r="AA93" s="302"/>
-      <c r="AB93" s="310"/>
-      <c r="AC93" s="302"/>
-      <c r="AD93" s="302"/>
-      <c r="AE93" s="302"/>
-    </row>
-    <row r="94" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="302"/>
-      <c r="B94" s="302"/>
-      <c r="C94" s="303"/>
-      <c r="D94" s="304"/>
-      <c r="E94" s="305"/>
-      <c r="F94" s="306"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="307"/>
-      <c r="L94" s="307"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="307"/>
-      <c r="O94" s="307"/>
-      <c r="P94" s="307"/>
-      <c r="Q94" s="70"/>
-      <c r="R94" s="70"/>
-      <c r="S94" s="308"/>
-      <c r="T94" s="302"/>
-      <c r="U94" s="308"/>
-      <c r="V94" s="70"/>
-      <c r="W94" s="70"/>
-      <c r="X94" s="309"/>
-      <c r="Y94" s="310"/>
-      <c r="Z94" s="309"/>
-      <c r="AA94" s="302"/>
-      <c r="AB94" s="310"/>
-      <c r="AC94" s="302"/>
-      <c r="AD94" s="302"/>
-      <c r="AE94" s="302"/>
-    </row>
-    <row r="95" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="302"/>
-      <c r="B95" s="302"/>
-      <c r="C95" s="303"/>
-      <c r="D95" s="304"/>
-      <c r="E95" s="305"/>
-      <c r="F95" s="306"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="307"/>
-      <c r="L95" s="307"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="307"/>
-      <c r="O95" s="307"/>
-      <c r="P95" s="307"/>
-      <c r="Q95" s="70"/>
-      <c r="R95" s="70"/>
-      <c r="S95" s="308"/>
-      <c r="T95" s="302"/>
-      <c r="U95" s="308"/>
-      <c r="V95" s="70"/>
-      <c r="W95" s="70"/>
-      <c r="X95" s="309"/>
-      <c r="Y95" s="310"/>
-      <c r="Z95" s="309"/>
-      <c r="AA95" s="302"/>
-      <c r="AB95" s="310"/>
-      <c r="AC95" s="302"/>
-      <c r="AD95" s="302"/>
-      <c r="AE95" s="302"/>
-    </row>
-    <row r="96" spans="1:65" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="302"/>
-      <c r="B96" s="302"/>
-      <c r="C96" s="303"/>
-      <c r="D96" s="304"/>
-      <c r="E96" s="305"/>
-      <c r="F96" s="306"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="307"/>
-      <c r="L96" s="307"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="307"/>
-      <c r="O96" s="307"/>
-      <c r="P96" s="307"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="70"/>
-      <c r="S96" s="308"/>
-      <c r="T96" s="302"/>
-      <c r="U96" s="308"/>
-      <c r="V96" s="70"/>
-      <c r="W96" s="70"/>
-      <c r="X96" s="309"/>
-      <c r="Y96" s="310"/>
-      <c r="Z96" s="309"/>
-      <c r="AA96" s="302"/>
-      <c r="AB96" s="310"/>
-      <c r="AC96" s="302"/>
-      <c r="AD96" s="302"/>
-      <c r="AE96" s="302"/>
-    </row>
-    <row r="97" spans="1:31" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="302"/>
-      <c r="B97" s="302"/>
-      <c r="C97" s="303"/>
-      <c r="D97" s="304"/>
-      <c r="E97" s="305"/>
-      <c r="F97" s="306"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="307"/>
-      <c r="L97" s="307"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="307"/>
-      <c r="O97" s="307"/>
-      <c r="P97" s="307"/>
-      <c r="Q97" s="70"/>
-      <c r="R97" s="70"/>
-      <c r="S97" s="308"/>
-      <c r="T97" s="302"/>
-      <c r="U97" s="308"/>
-      <c r="V97" s="70"/>
-      <c r="W97" s="70"/>
-      <c r="X97" s="309"/>
-      <c r="Y97" s="310"/>
-      <c r="Z97" s="309"/>
-      <c r="AA97" s="302"/>
-      <c r="AB97" s="310"/>
-      <c r="AC97" s="302"/>
-      <c r="AD97" s="302"/>
-      <c r="AE97" s="302"/>
-    </row>
-    <row r="98" spans="1:31" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="302"/>
-      <c r="B98" s="302"/>
-      <c r="C98" s="303"/>
-      <c r="D98" s="304"/>
-      <c r="E98" s="305"/>
-      <c r="F98" s="306"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="307"/>
-      <c r="L98" s="307"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="307"/>
-      <c r="O98" s="307"/>
-      <c r="P98" s="307"/>
-      <c r="Q98" s="70"/>
-      <c r="R98" s="70"/>
-      <c r="S98" s="308"/>
-      <c r="T98" s="302"/>
-      <c r="U98" s="308"/>
-      <c r="V98" s="70"/>
-      <c r="W98" s="70"/>
-      <c r="X98" s="309"/>
-      <c r="Y98" s="310"/>
-      <c r="Z98" s="309"/>
-      <c r="AA98" s="302"/>
-      <c r="AB98" s="310"/>
-      <c r="AC98" s="302"/>
-      <c r="AD98" s="302"/>
-      <c r="AE98" s="302"/>
-    </row>
-    <row r="99" spans="1:31" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="302"/>
-      <c r="B99" s="302"/>
-      <c r="C99" s="303"/>
-      <c r="D99" s="304"/>
-      <c r="E99" s="305"/>
-      <c r="F99" s="306"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="307"/>
-      <c r="L99" s="307"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="307"/>
-      <c r="O99" s="307"/>
-      <c r="P99" s="307"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="70"/>
-      <c r="S99" s="308"/>
-      <c r="T99" s="302"/>
-      <c r="U99" s="308"/>
-      <c r="V99" s="70"/>
-      <c r="W99" s="70"/>
-      <c r="X99" s="309"/>
-      <c r="Y99" s="310"/>
-      <c r="Z99" s="309"/>
-      <c r="AA99" s="302"/>
-      <c r="AB99" s="310"/>
-      <c r="AC99" s="302"/>
-      <c r="AD99" s="302"/>
-      <c r="AE99" s="302"/>
+    <row r="83" spans="1:65" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="93"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="191"/>
+      <c r="L83" s="191"/>
+      <c r="M83" s="119"/>
+      <c r="N83" s="191"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="191"/>
+      <c r="Q83" s="119"/>
+      <c r="R83" s="119"/>
+      <c r="S83" s="193"/>
+      <c r="T83" s="93"/>
+      <c r="U83" s="193"/>
+      <c r="V83" s="196"/>
+      <c r="W83" s="196"/>
+      <c r="X83" s="195"/>
+      <c r="Y83" s="123"/>
+      <c r="Z83" s="195"/>
+      <c r="AA83" s="93"/>
+      <c r="AB83" s="123"/>
+    </row>
+    <row r="84" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="94"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="81"/>
+      <c r="S84" s="83"/>
+      <c r="U84" s="83"/>
+      <c r="V84" s="69"/>
+      <c r="W84" s="84"/>
+      <c r="X84" s="85"/>
+      <c r="Y84" s="124"/>
+      <c r="Z84" s="85"/>
+      <c r="AA84" s="62"/>
+      <c r="AB84" s="124"/>
+    </row>
+    <row r="85" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="94"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="82">
+        <f>365*24</f>
+        <v>8760</v>
+      </c>
+      <c r="J85" s="65"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="81"/>
+      <c r="S85" s="83"/>
+      <c r="U85" s="83"/>
+      <c r="V85" s="69"/>
+      <c r="W85" s="84"/>
+      <c r="X85" s="85"/>
+      <c r="Y85" s="124"/>
+      <c r="Z85" s="85"/>
+      <c r="AA85" s="62"/>
+      <c r="AB85" s="124"/>
+    </row>
+    <row r="86" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="298"/>
+      <c r="B86" s="298"/>
+      <c r="C86" s="298"/>
+      <c r="D86" s="298"/>
+      <c r="E86" s="298"/>
+      <c r="F86" s="298"/>
+      <c r="G86" s="298"/>
+      <c r="H86" s="298"/>
+      <c r="I86" s="298">
+        <f>13*7</f>
+        <v>91</v>
+      </c>
+      <c r="J86" s="298"/>
+      <c r="K86" s="298"/>
+      <c r="L86" s="298"/>
+      <c r="M86" s="298"/>
+      <c r="N86" s="298"/>
+      <c r="O86" s="298"/>
+      <c r="P86" s="298"/>
+      <c r="Q86" s="298"/>
+      <c r="R86" s="298"/>
+      <c r="S86" s="298"/>
+      <c r="T86" s="298"/>
+      <c r="U86" s="298"/>
+      <c r="V86" s="298"/>
+      <c r="W86" s="298"/>
+      <c r="X86" s="298"/>
+      <c r="Y86" s="298"/>
+      <c r="Z86" s="298"/>
+      <c r="AA86" s="298"/>
+      <c r="AB86" s="298"/>
+      <c r="AC86" s="298"/>
+      <c r="AD86" s="298"/>
+      <c r="AE86" s="298"/>
+      <c r="AN86" s="94"/>
+      <c r="AO86" s="110"/>
+      <c r="AP86" s="129"/>
+      <c r="AQ86" s="79"/>
+      <c r="AR86" s="80"/>
+      <c r="AS86" s="81"/>
+      <c r="AT86" s="82"/>
+      <c r="AU86" s="81"/>
+      <c r="AV86" s="57"/>
+      <c r="AW86" s="57"/>
+      <c r="AX86" s="81"/>
+      <c r="AY86" s="57"/>
+      <c r="AZ86" s="57"/>
+      <c r="BA86" s="57"/>
+      <c r="BB86" s="81"/>
+      <c r="BC86" s="81"/>
+      <c r="BD86" s="83"/>
+      <c r="BF86" s="83"/>
+      <c r="BG86" s="69"/>
+      <c r="BH86" s="84"/>
+      <c r="BI86" s="85"/>
+      <c r="BJ86" s="124"/>
+      <c r="BK86" s="85"/>
+      <c r="BM86" s="124"/>
+    </row>
+    <row r="87" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="298"/>
+      <c r="B87" s="298"/>
+      <c r="C87" s="299"/>
+      <c r="D87" s="300"/>
+      <c r="E87" s="301"/>
+      <c r="F87" s="302"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66">
+        <f>I86*24</f>
+        <v>2184</v>
+      </c>
+      <c r="J87" s="66"/>
+      <c r="K87" s="303"/>
+      <c r="L87" s="303"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="303"/>
+      <c r="O87" s="303"/>
+      <c r="P87" s="303"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="304"/>
+      <c r="T87" s="298"/>
+      <c r="U87" s="304"/>
+      <c r="V87" s="66"/>
+      <c r="W87" s="66"/>
+      <c r="X87" s="305"/>
+      <c r="Y87" s="306"/>
+      <c r="Z87" s="305"/>
+      <c r="AA87" s="298"/>
+      <c r="AB87" s="306"/>
+      <c r="AC87" s="298"/>
+      <c r="AD87" s="298"/>
+      <c r="AE87" s="298"/>
+    </row>
+    <row r="88" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="298"/>
+      <c r="B88" s="298"/>
+      <c r="C88" s="299"/>
+      <c r="D88" s="300"/>
+      <c r="E88" s="301"/>
+      <c r="F88" s="302"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66">
+        <f>I87/I85</f>
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="J88" s="66"/>
+      <c r="K88" s="303"/>
+      <c r="L88" s="303"/>
+      <c r="M88" s="66"/>
+      <c r="N88" s="303"/>
+      <c r="O88" s="303"/>
+      <c r="P88" s="303"/>
+      <c r="Q88" s="66"/>
+      <c r="R88" s="66"/>
+      <c r="S88" s="304"/>
+      <c r="T88" s="298"/>
+      <c r="U88" s="304"/>
+      <c r="V88" s="66"/>
+      <c r="W88" s="66"/>
+      <c r="X88" s="305"/>
+      <c r="Y88" s="306"/>
+      <c r="Z88" s="305"/>
+      <c r="AA88" s="298"/>
+      <c r="AB88" s="306"/>
+      <c r="AC88" s="298"/>
+      <c r="AD88" s="298"/>
+      <c r="AE88" s="298"/>
+    </row>
+    <row r="89" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="298"/>
+      <c r="B89" s="298"/>
+      <c r="C89" s="299"/>
+      <c r="D89" s="300"/>
+      <c r="E89" s="301"/>
+      <c r="F89" s="302"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="303"/>
+      <c r="L89" s="303"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="303"/>
+      <c r="O89" s="303"/>
+      <c r="P89" s="303"/>
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="304"/>
+      <c r="T89" s="298"/>
+      <c r="U89" s="304"/>
+      <c r="V89" s="66"/>
+      <c r="W89" s="66"/>
+      <c r="X89" s="305"/>
+      <c r="Y89" s="306"/>
+      <c r="Z89" s="305"/>
+      <c r="AA89" s="298"/>
+      <c r="AB89" s="306"/>
+      <c r="AC89" s="298"/>
+      <c r="AD89" s="298"/>
+      <c r="AE89" s="298"/>
+    </row>
+    <row r="90" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="298"/>
+      <c r="B90" s="298"/>
+      <c r="C90" s="299"/>
+      <c r="D90" s="300"/>
+      <c r="E90" s="301"/>
+      <c r="F90" s="302"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="303"/>
+      <c r="L90" s="303"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="303"/>
+      <c r="O90" s="303"/>
+      <c r="P90" s="303"/>
+      <c r="Q90" s="66"/>
+      <c r="R90" s="66"/>
+      <c r="S90" s="304"/>
+      <c r="T90" s="298"/>
+      <c r="U90" s="304"/>
+      <c r="V90" s="66"/>
+      <c r="W90" s="66"/>
+      <c r="X90" s="305"/>
+      <c r="Y90" s="306"/>
+      <c r="Z90" s="305"/>
+      <c r="AA90" s="298"/>
+      <c r="AB90" s="306"/>
+      <c r="AC90" s="298"/>
+      <c r="AD90" s="298"/>
+      <c r="AE90" s="298"/>
+    </row>
+    <row r="91" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="298"/>
+      <c r="B91" s="298"/>
+      <c r="C91" s="299"/>
+      <c r="D91" s="300"/>
+      <c r="E91" s="301"/>
+      <c r="F91" s="302"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="303"/>
+      <c r="L91" s="303"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="303"/>
+      <c r="O91" s="303"/>
+      <c r="P91" s="303"/>
+      <c r="Q91" s="66"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="304"/>
+      <c r="T91" s="298"/>
+      <c r="U91" s="304"/>
+      <c r="V91" s="66"/>
+      <c r="W91" s="66"/>
+      <c r="X91" s="305"/>
+      <c r="Y91" s="306"/>
+      <c r="Z91" s="305"/>
+      <c r="AA91" s="298"/>
+      <c r="AB91" s="306"/>
+      <c r="AC91" s="298"/>
+      <c r="AD91" s="298"/>
+      <c r="AE91" s="298"/>
+    </row>
+    <row r="92" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="298"/>
+      <c r="B92" s="298"/>
+      <c r="C92" s="299"/>
+      <c r="D92" s="300"/>
+      <c r="E92" s="301"/>
+      <c r="F92" s="302"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="303"/>
+      <c r="L92" s="303"/>
+      <c r="M92" s="66"/>
+      <c r="N92" s="303"/>
+      <c r="O92" s="303"/>
+      <c r="P92" s="303"/>
+      <c r="Q92" s="66"/>
+      <c r="R92" s="66"/>
+      <c r="S92" s="304"/>
+      <c r="T92" s="298"/>
+      <c r="U92" s="304"/>
+      <c r="V92" s="66"/>
+      <c r="W92" s="66"/>
+      <c r="X92" s="305"/>
+      <c r="Y92" s="306"/>
+      <c r="Z92" s="305"/>
+      <c r="AA92" s="298"/>
+      <c r="AB92" s="306"/>
+      <c r="AC92" s="298"/>
+      <c r="AD92" s="298"/>
+      <c r="AE92" s="298"/>
+    </row>
+    <row r="93" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="298"/>
+      <c r="B93" s="298"/>
+      <c r="C93" s="299"/>
+      <c r="D93" s="300"/>
+      <c r="E93" s="301"/>
+      <c r="F93" s="302"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="303"/>
+      <c r="L93" s="303"/>
+      <c r="M93" s="66"/>
+      <c r="N93" s="303"/>
+      <c r="O93" s="303"/>
+      <c r="P93" s="303"/>
+      <c r="Q93" s="66"/>
+      <c r="R93" s="66"/>
+      <c r="S93" s="304"/>
+      <c r="T93" s="298"/>
+      <c r="U93" s="304"/>
+      <c r="V93" s="66"/>
+      <c r="W93" s="66"/>
+      <c r="X93" s="305"/>
+      <c r="Y93" s="306"/>
+      <c r="Z93" s="305"/>
+      <c r="AA93" s="298"/>
+      <c r="AB93" s="306"/>
+      <c r="AC93" s="298"/>
+      <c r="AD93" s="298"/>
+      <c r="AE93" s="298"/>
+    </row>
+    <row r="94" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="298"/>
+      <c r="B94" s="298"/>
+      <c r="C94" s="299"/>
+      <c r="D94" s="300"/>
+      <c r="E94" s="301"/>
+      <c r="F94" s="302"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="66"/>
+      <c r="K94" s="303"/>
+      <c r="L94" s="303"/>
+      <c r="M94" s="66"/>
+      <c r="N94" s="303"/>
+      <c r="O94" s="303"/>
+      <c r="P94" s="303"/>
+      <c r="Q94" s="66"/>
+      <c r="R94" s="66"/>
+      <c r="S94" s="304"/>
+      <c r="T94" s="298"/>
+      <c r="U94" s="304"/>
+      <c r="V94" s="66"/>
+      <c r="W94" s="66"/>
+      <c r="X94" s="305"/>
+      <c r="Y94" s="306"/>
+      <c r="Z94" s="305"/>
+      <c r="AA94" s="298"/>
+      <c r="AB94" s="306"/>
+      <c r="AC94" s="298"/>
+      <c r="AD94" s="298"/>
+      <c r="AE94" s="298"/>
+    </row>
+    <row r="95" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="298"/>
+      <c r="B95" s="298"/>
+      <c r="C95" s="299"/>
+      <c r="D95" s="300"/>
+      <c r="E95" s="301"/>
+      <c r="F95" s="302"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="303"/>
+      <c r="L95" s="303"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="303"/>
+      <c r="O95" s="303"/>
+      <c r="P95" s="303"/>
+      <c r="Q95" s="66"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="304"/>
+      <c r="T95" s="298"/>
+      <c r="U95" s="304"/>
+      <c r="V95" s="66"/>
+      <c r="W95" s="66"/>
+      <c r="X95" s="305"/>
+      <c r="Y95" s="306"/>
+      <c r="Z95" s="305"/>
+      <c r="AA95" s="298"/>
+      <c r="AB95" s="306"/>
+      <c r="AC95" s="298"/>
+      <c r="AD95" s="298"/>
+      <c r="AE95" s="298"/>
+    </row>
+    <row r="96" spans="1:65" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="298"/>
+      <c r="B96" s="298"/>
+      <c r="C96" s="299"/>
+      <c r="D96" s="300"/>
+      <c r="E96" s="301"/>
+      <c r="F96" s="302"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="303"/>
+      <c r="L96" s="303"/>
+      <c r="M96" s="66"/>
+      <c r="N96" s="303"/>
+      <c r="O96" s="303"/>
+      <c r="P96" s="303"/>
+      <c r="Q96" s="66"/>
+      <c r="R96" s="66"/>
+      <c r="S96" s="304"/>
+      <c r="T96" s="298"/>
+      <c r="U96" s="304"/>
+      <c r="V96" s="66"/>
+      <c r="W96" s="66"/>
+      <c r="X96" s="305"/>
+      <c r="Y96" s="306"/>
+      <c r="Z96" s="305"/>
+      <c r="AA96" s="298"/>
+      <c r="AB96" s="306"/>
+      <c r="AC96" s="298"/>
+      <c r="AD96" s="298"/>
+      <c r="AE96" s="298"/>
+    </row>
+    <row r="97" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="298"/>
+      <c r="B97" s="298"/>
+      <c r="C97" s="299"/>
+      <c r="D97" s="300"/>
+      <c r="E97" s="301"/>
+      <c r="F97" s="302"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="303"/>
+      <c r="L97" s="303"/>
+      <c r="M97" s="66"/>
+      <c r="N97" s="303"/>
+      <c r="O97" s="303"/>
+      <c r="P97" s="303"/>
+      <c r="Q97" s="66"/>
+      <c r="R97" s="66"/>
+      <c r="S97" s="304"/>
+      <c r="T97" s="298"/>
+      <c r="U97" s="304"/>
+      <c r="V97" s="66"/>
+      <c r="W97" s="66"/>
+      <c r="X97" s="305"/>
+      <c r="Y97" s="306"/>
+      <c r="Z97" s="305"/>
+      <c r="AA97" s="298"/>
+      <c r="AB97" s="306"/>
+      <c r="AC97" s="298"/>
+      <c r="AD97" s="298"/>
+      <c r="AE97" s="298"/>
+    </row>
+    <row r="98" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="298"/>
+      <c r="B98" s="298"/>
+      <c r="C98" s="299"/>
+      <c r="D98" s="300"/>
+      <c r="E98" s="301"/>
+      <c r="F98" s="302"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="303"/>
+      <c r="L98" s="303"/>
+      <c r="M98" s="66"/>
+      <c r="N98" s="303"/>
+      <c r="O98" s="303"/>
+      <c r="P98" s="303"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="66"/>
+      <c r="S98" s="304"/>
+      <c r="T98" s="298"/>
+      <c r="U98" s="304"/>
+      <c r="V98" s="66"/>
+      <c r="W98" s="66"/>
+      <c r="X98" s="305"/>
+      <c r="Y98" s="306"/>
+      <c r="Z98" s="305"/>
+      <c r="AA98" s="298"/>
+      <c r="AB98" s="306"/>
+      <c r="AC98" s="298"/>
+      <c r="AD98" s="298"/>
+      <c r="AE98" s="298"/>
+    </row>
+    <row r="99" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="298"/>
+      <c r="B99" s="298"/>
+      <c r="C99" s="299"/>
+      <c r="D99" s="300"/>
+      <c r="E99" s="301"/>
+      <c r="F99" s="302"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="303"/>
+      <c r="L99" s="303"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="303"/>
+      <c r="O99" s="303"/>
+      <c r="P99" s="303"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="304"/>
+      <c r="T99" s="298"/>
+      <c r="U99" s="304"/>
+      <c r="V99" s="66"/>
+      <c r="W99" s="66"/>
+      <c r="X99" s="305"/>
+      <c r="Y99" s="306"/>
+      <c r="Z99" s="305"/>
+      <c r="AA99" s="298"/>
+      <c r="AB99" s="306"/>
+      <c r="AC99" s="298"/>
+      <c r="AD99" s="298"/>
+      <c r="AE99" s="298"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/lib/appDriversAndFormulas_v.1.2.xlsx
+++ b/app/lib/appDriversAndFormulas_v.1.2.xlsx
@@ -2557,11 +2557,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1166707696"/>
-        <c:axId val="-1170518880"/>
+        <c:axId val="-797412800"/>
+        <c:axId val="-797408416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1166707696"/>
+        <c:axId val="-797412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1170518880"/>
+        <c:crossAx val="-797408416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2607,7 +2607,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1170518880"/>
+        <c:axId val="-797408416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166707696"/>
+        <c:crossAx val="-797412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33727,8 +33727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
